--- a/output_templates/Benefit_Cost_Template.xlsx
+++ b/output_templates/Benefit_Cost_Template.xlsx
@@ -587,8 +587,8 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1048,7 +1048,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,7 +1065,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,7 +1229,7 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1247,7 +1247,7 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,10 +1284,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1315,12 +1315,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1341,6 +1335,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1540,11 +1540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126114816"/>
-        <c:axId val="136162304"/>
+        <c:axId val="83418496"/>
+        <c:axId val="83420672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126114816"/>
+        <c:axId val="83418496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136162304"/>
+        <c:crossAx val="83420672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1587,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136162304"/>
+        <c:axId val="83420672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +1625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126114816"/>
+        <c:crossAx val="83418496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +1704,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1871,11 +1870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53532928"/>
-        <c:axId val="53535104"/>
+        <c:axId val="84551936"/>
+        <c:axId val="84582784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53532928"/>
+        <c:axId val="84551936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,13 +1896,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53535104"/>
+        <c:crossAx val="84582784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1911,7 +1909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53535104"/>
+        <c:axId val="84582784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53532928"/>
+        <c:crossAx val="84551936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,11 +2187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57513472"/>
-        <c:axId val="57515392"/>
+        <c:axId val="114275840"/>
+        <c:axId val="114277760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57513472"/>
+        <c:axId val="114275840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,13 +2213,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57515392"/>
+        <c:crossAx val="114277760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2229,7 +2226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57515392"/>
+        <c:axId val="114277760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,14 +2249,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57513472"/>
+        <c:crossAx val="114275840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2320,7 +2316,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2427,11 +2422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57538048"/>
-        <c:axId val="57539968"/>
+        <c:axId val="83517440"/>
+        <c:axId val="83519360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57538048"/>
+        <c:axId val="83517440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2461,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57539968"/>
+        <c:crossAx val="83519360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57539968"/>
+        <c:axId val="83519360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,14 +2492,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57538048"/>
+        <c:crossAx val="83517440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,7 +2545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2621,11 +2614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="57560448"/>
-        <c:axId val="57562624"/>
+        <c:axId val="83543936"/>
+        <c:axId val="83554304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57560448"/>
+        <c:axId val="83543936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,13 +2640,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57562624"/>
+        <c:crossAx val="83554304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,7 +2653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57562624"/>
+        <c:axId val="83554304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,14 +2676,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57560448"/>
+        <c:crossAx val="83543936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2756,7 +2747,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2923,11 +2913,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74843264"/>
-        <c:axId val="74961664"/>
+        <c:axId val="84743296"/>
+        <c:axId val="84745216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74843264"/>
+        <c:axId val="84743296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,13 +2939,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74961664"/>
+        <c:crossAx val="84745216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2963,7 +2952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74961664"/>
+        <c:axId val="84745216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +2989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74843264"/>
+        <c:crossAx val="84743296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,11 +3230,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="108194816"/>
-        <c:axId val="118201728"/>
+        <c:axId val="84787584"/>
+        <c:axId val="84789504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108194816"/>
+        <c:axId val="84787584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,13 +3256,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118201728"/>
+        <c:crossAx val="84789504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3281,7 +3269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118201728"/>
+        <c:axId val="84789504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,14 +3292,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108194816"/>
+        <c:crossAx val="84787584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3372,7 +3359,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3479,11 +3465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="161962624"/>
-        <c:axId val="161970816"/>
+        <c:axId val="85133952"/>
+        <c:axId val="85140224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="161962624"/>
+        <c:axId val="85133952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3518,7 +3504,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161970816"/>
+        <c:crossAx val="85140224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3526,7 +3512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161970816"/>
+        <c:axId val="85140224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,14 +3535,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161962624"/>
+        <c:crossAx val="85133952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3603,7 +3588,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3673,11 +3657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45488768"/>
-        <c:axId val="45519616"/>
+        <c:axId val="85181184"/>
+        <c:axId val="85183104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45488768"/>
+        <c:axId val="85181184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,13 +3683,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45519616"/>
+        <c:crossAx val="85183104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3713,7 +3696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45519616"/>
+        <c:axId val="85183104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,14 +3719,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45488768"/>
+        <c:crossAx val="85181184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3909,11 +3891,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140380032"/>
-        <c:axId val="147100032"/>
+        <c:axId val="84306560"/>
+        <c:axId val="84321024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140380032"/>
+        <c:axId val="84306560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,7 +3923,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147100032"/>
+        <c:crossAx val="84321024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3949,7 +3931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147100032"/>
+        <c:axId val="84321024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +3961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140380032"/>
+        <c:crossAx val="84306560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4159,11 +4141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147122816"/>
-        <c:axId val="147725312"/>
+        <c:axId val="84338560"/>
+        <c:axId val="84094976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147122816"/>
+        <c:axId val="84338560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147725312"/>
+        <c:crossAx val="84094976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4204,7 +4186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147725312"/>
+        <c:axId val="84094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4241,7 +4223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147122816"/>
+        <c:crossAx val="84338560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4516,11 +4498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146887040"/>
-        <c:axId val="146908288"/>
+        <c:axId val="84132992"/>
+        <c:axId val="84134912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146887040"/>
+        <c:axId val="84132992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4548,7 +4530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146908288"/>
+        <c:crossAx val="84134912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4556,7 +4538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146908288"/>
+        <c:axId val="84134912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,7 +4573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146887040"/>
+        <c:crossAx val="84132992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4853,11 +4835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41403136"/>
-        <c:axId val="41405056"/>
+        <c:axId val="84173184"/>
+        <c:axId val="84175104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41403136"/>
+        <c:axId val="84173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,7 +4867,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41405056"/>
+        <c:crossAx val="84175104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4893,7 +4875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41405056"/>
+        <c:axId val="84175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4930,7 +4912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41403136"/>
+        <c:crossAx val="84173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5173,11 +5155,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45657472"/>
-        <c:axId val="45775104"/>
+        <c:axId val="84211584"/>
+        <c:axId val="84213760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45657472"/>
+        <c:axId val="84211584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5205,7 +5187,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45775104"/>
+        <c:crossAx val="84213760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5213,7 +5195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45775104"/>
+        <c:axId val="84213760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45657472"/>
+        <c:crossAx val="84211584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5404,7 +5386,7 @@
                   <c:v>6.1064811565760859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0229902685546648</c:v>
+                  <c:v>-9.5892967283748423E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.2074214612996134E-2</c:v>
@@ -5434,11 +5416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45959040"/>
-        <c:axId val="45999616"/>
+        <c:axId val="84251008"/>
+        <c:axId val="84252928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45959040"/>
+        <c:axId val="84251008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5473,7 +5455,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45999616"/>
+        <c:crossAx val="84252928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5481,7 +5463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45999616"/>
+        <c:axId val="84252928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45959040"/>
+        <c:crossAx val="84251008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5643,11 +5625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46152704"/>
-        <c:axId val="49910528"/>
+        <c:axId val="84412672"/>
+        <c:axId val="84423040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46152704"/>
+        <c:axId val="84412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5675,7 +5657,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49910528"/>
+        <c:crossAx val="84423040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5683,7 +5665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49910528"/>
+        <c:axId val="84423040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5713,7 +5695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46152704"/>
+        <c:crossAx val="84412672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5866,11 +5848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149272448"/>
-        <c:axId val="149279872"/>
+        <c:axId val="84456192"/>
+        <c:axId val="84458112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149272448"/>
+        <c:axId val="84456192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,7 +5887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149279872"/>
+        <c:crossAx val="84458112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5913,7 +5895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149279872"/>
+        <c:axId val="84458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,7 +5932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149272448"/>
+        <c:crossAx val="84456192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8590,7 +8572,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10030,7 +10012,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10190,11 +10172,11 @@
       </c>
       <c r="M6" s="24">
         <f>F25</f>
-        <v>57875365.5899093</v>
+        <v>-1379531.1866469011</v>
       </c>
       <c r="N6" s="25">
         <f>M6/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>4.0229902685546648</v>
+        <v>-9.5892967283748423E-2</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -10275,7 +10257,7 @@
       <c r="L9" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="144">
+      <c r="M9" s="142">
         <f>HeatResults!T8</f>
         <v>6936746.666666667</v>
       </c>
@@ -10871,9 +10853,9 @@
       <c r="E25" s="63">
         <v>21</v>
       </c>
-      <c r="F25" s="92">
-        <f>RawBaseline!C83</f>
-        <v>57875365.5899093</v>
+      <c r="F25" s="61">
+        <f>'Scenario Metrics'!F25-'Baseline Metrics'!F25</f>
+        <v>-1379531.1866469011</v>
       </c>
       <c r="G25" s="28"/>
       <c r="L25" s="55" t="s">
@@ -11538,7 +11520,7 @@
       <c r="S4" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="T4" s="139" t="s">
+      <c r="T4" s="137" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11546,13 +11528,13 @@
       <c r="Q5" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="140">
+      <c r="R5" s="138">
         <v>635</v>
       </c>
-      <c r="S5" s="141">
+      <c r="S5" s="139">
         <v>196</v>
       </c>
-      <c r="T5" s="135">
+      <c r="T5" s="133">
         <f>SUM(R5:S5)</f>
         <v>831</v>
       </c>
@@ -11567,13 +11549,13 @@
       <c r="Q6" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="142">
+      <c r="R6" s="140">
         <v>1588980000</v>
       </c>
-      <c r="S6" s="143">
+      <c r="S6" s="141">
         <v>492044000</v>
       </c>
-      <c r="T6" s="136">
+      <c r="T6" s="134">
         <f t="shared" ref="T6:T8" si="0">SUM(R6:S6)</f>
         <v>2081024000</v>
       </c>
@@ -11582,15 +11564,15 @@
       <c r="Q7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="133">
+      <c r="R7" s="131">
         <f>R5/$V$5</f>
         <v>2.1166666666666667</v>
       </c>
-      <c r="S7" s="134">
+      <c r="S7" s="132">
         <f>S5/$V$5</f>
         <v>0.65333333333333332</v>
       </c>
-      <c r="T7" s="135">
+      <c r="T7" s="133">
         <f t="shared" si="0"/>
         <v>2.77</v>
       </c>
@@ -11599,32 +11581,32 @@
       <c r="Q8" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="R8" s="137">
+      <c r="R8" s="135">
         <f>R6/$V$5</f>
         <v>5296600</v>
       </c>
-      <c r="S8" s="138">
+      <c r="S8" s="136">
         <f>S6/$V$5</f>
         <v>1640146.6666666667</v>
       </c>
-      <c r="T8" s="138">
+      <c r="T8" s="136">
         <f t="shared" si="0"/>
         <v>6936746.666666667</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q12" s="131" t="s">
+      <c r="Q12" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/output_templates/Benefit_Cost_Template.xlsx
+++ b/output_templates/Benefit_Cost_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\soundcast_214\output_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530"/>
   </bookViews>
@@ -17,12 +22,12 @@
     <sheet name="Baseline Charts" sheetId="7" r:id="rId8"/>
     <sheet name="Scenario Charts" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="148">
   <si>
     <t xml:space="preserve">Toll and Auto Operating Cost </t>
   </si>
@@ -105,9 +110,6 @@
     <t>Average Time Biked per Biker</t>
   </si>
   <si>
-    <t>Average Time Walked per Walker</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
@@ -264,13 +266,7 @@
     <t>Average Time Biked per Low Income Biker</t>
   </si>
   <si>
-    <t>Average Time Walked per Low Income Walker</t>
-  </si>
-  <si>
     <t>Total Number of Low INcome Bikers</t>
-  </si>
-  <si>
-    <t>Total Number of Low Income Walkers</t>
   </si>
   <si>
     <t>Number of Low Income Mode Users</t>
@@ -474,9 +470,6 @@
     <t>Only Used As a Difference</t>
   </si>
   <si>
-    <t>2010 Baseline</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Difference Charts: Scenario - Baseline                        </t>
     </r>
@@ -508,9 +501,6 @@
   </si>
   <si>
     <t>Baseline Charts</t>
-  </si>
-  <si>
-    <t>2010 Autonomous Vehicles : High Cost of Travel ($1.65 per mile)</t>
   </si>
   <si>
     <t>Household Cost Measures</t>
@@ -573,12 +563,33 @@
   <si>
     <t>Instructions: Run the HEAT on the baseline and the scenario for walking and biking.  Then enter the  values resulting from heat in the cells in the table above.</t>
   </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>Average Time Walked per Low Income Walker or Person Walking to Transit</t>
+  </si>
+  <si>
+    <t>Average Time Walked per Walker or Person Walking to Transit</t>
+  </si>
+  <si>
+    <t>Total Number of Low Income Walkers or People Walking to Transit</t>
+  </si>
+  <si>
+    <t>Total Number of Walkers or People Walking to Transit</t>
+  </si>
+  <si>
+    <t>2040 Population with 2014 network</t>
+  </si>
+  <si>
+    <t>2014 Base</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -589,6 +600,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1023,7 +1035,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1311,9 +1323,6 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1341,6 +1350,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1354,12 +1372,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1397,7 +1418,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1459,20 +1479,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>24.425924626304344</c:v>
+                  <c:v>-0.19780279112785903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.8265327101666284E-2</c:v>
+                  <c:v>-5.3377137386102502E-3</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.20829685845198453</c:v>
+                  <c:v>2.5819461268989263E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>-2.0040526912978311</c:v>
+                  <c:v>3.4931875408082846E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9300-4782-808E-55F05FABB891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1516,20 +1541,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>11.570418100399468</c:v>
+                  <c:v>0.2348841916549862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9081516617107228E-2</c:v>
+                  <c:v>6.0664177803200325E-2</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>0.18376549103857684</c:v>
+                  <c:v>2.7301582015226672E-2</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>-1.1465497763560466</c:v>
+                  <c:v>9.2428312182945227E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9300-4782-808E-55F05FABB891}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1576,6 +1606,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1618,7 +1649,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -1657,7 +1687,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1771,26 +1801,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.55373151799549514</c:v>
+                  <c:v>0.49277155816995349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39242227041052524</c:v>
+                  <c:v>0.3770617552723825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28860412746810199</c:v>
+                  <c:v>0.25162351922204573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6589126379555453E-2</c:v>
+                  <c:v>9.6799471780548638E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13248042076006961</c:v>
+                  <c:v>0.2460823412531542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4112178402625413E-2</c:v>
+                  <c:v>3.6234722312332442E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B49B-478F-8142-9F3850EC4808}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1840,26 +1875,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3844800505526928</c:v>
+                  <c:v>0.36786193706943349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33586627176163858</c:v>
+                  <c:v>0.33965606921317487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19670543736944154</c:v>
+                  <c:v>0.21640701126372192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6386528071064723E-2</c:v>
+                  <c:v>0.5059793805066517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19131375628783212</c:v>
+                  <c:v>0.28582915212043708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3801135162534636E-2</c:v>
+                  <c:v>4.5136656952775953E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B49B-478F-8142-9F3850EC4808}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1898,6 +1938,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1978,7 +2019,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2088,26 +2129,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60.818262535864264</c:v>
+                  <c:v>64.450561885801449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.108625639469359</c:v>
+                  <c:v>39.741107424792318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.563166033751187</c:v>
+                  <c:v>39.171948192338583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.669978233627518</c:v>
+                  <c:v>50.996679447287249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.110300383369982</c:v>
+                  <c:v>90.919794727418633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.689229545155001</c:v>
+                  <c:v>61.135273145230556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C4F-4EB3-BF71-A792B4B056C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2157,26 +2203,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>49.568496641025618</c:v>
+                  <c:v>54.411197996007068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.340822222071871</c:v>
+                  <c:v>38.175319124377879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.787645916173403</c:v>
+                  <c:v>36.822410679851799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.099775728705026</c:v>
+                  <c:v>13.818267800116365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.396713758207326</c:v>
+                  <c:v>100.39804691769849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.737180241664369</c:v>
+                  <c:v>60.622439060044385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C4F-4EB3-BF71-A792B4B056C4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2215,6 +2266,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2287,7 +2339,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2389,29 +2441,34 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>29.351459924039297</c:v>
+                  <c:v>35.885944257558556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3886204159238615</c:v>
+                  <c:v>3.3630023614511244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.091961074218659</c:v>
+                  <c:v>15.684555589270023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.556106495717355E-2</c:v>
+                  <c:v>0.13455067571988563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8226989400942961</c:v>
+                  <c:v>0.57246555714878178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4934414603277131</c:v>
+                  <c:v>1.6671810108173417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81211496979148468</c:v>
+                  <c:v>0.83636524346720409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EAD-4100-A5D6-99F949494DB2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2458,6 +2515,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2516,7 +2574,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2593,17 +2651,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.400658658478804</c:v>
+                  <c:v>49.283153831235246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.180647954959653</c:v>
+                  <c:v>93.791638359199609</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>0.78460041715501128</c:v>
+                  <c:v>0.9118180229104933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F092-40EA-9C04-6E001D071717}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2642,6 +2705,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2700,7 +2764,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2814,26 +2878,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.40619467771654916</c:v>
+                  <c:v>0.50047458323334848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35922118458885055</c:v>
+                  <c:v>0.36204423924695406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37823780028521864</c:v>
+                  <c:v>0.2244241133131652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12190525391216389</c:v>
+                  <c:v>7.5982357952491378E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21414281897123874</c:v>
+                  <c:v>0.27818750910342643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9580057382945105E-2</c:v>
+                  <c:v>4.04195278059249E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8FE-4E73-8648-0D51519A9BA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2883,26 +2952,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.25634801880608121</c:v>
+                  <c:v>0.42740759366356551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27234349606918112</c:v>
+                  <c:v>0.31768334590562403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26500371257427163</c:v>
+                  <c:v>0.1711340206185567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17268382879959024</c:v>
+                  <c:v>9.5300198362808369E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28488893685080285</c:v>
+                  <c:v>0.30737518509205708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3157427645068236E-2</c:v>
+                  <c:v>4.8149079428938618E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8FE-4E73-8648-0D51519A9BA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2941,6 +3015,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3021,7 +3096,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3131,26 +3206,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41.132463065251507</c:v>
+                  <c:v>65.915881734821241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.9962051260115</c:v>
+                  <c:v>40.731020585029469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.062454236107698</c:v>
+                  <c:v>39.367743247054641</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.51343611511213</c:v>
+                  <c:v>84.213877797108509</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.252822509990608</c:v>
+                  <c:v>90.506742866821355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.624132211242852</c:v>
+                  <c:v>62.820450357679505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C020-4D82-9018-A04E831E00CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3200,26 +3280,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>29.653670023323336</c:v>
+                  <c:v>60.447091482966144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.171653665196832</c:v>
+                  <c:v>40.633662788111486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.356309350431381</c:v>
+                  <c:v>37.514286853359394</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.82469970992173</c:v>
+                  <c:v>89.545814773375241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.62366399582794</c:v>
+                  <c:v>97.949534029368294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.805977481160554</c:v>
+                  <c:v>65.005997922638372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C020-4D82-9018-A04E831E00CA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3258,6 +3343,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3330,7 +3416,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3432,29 +3518,34 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>32.601842936487095</c:v>
+                  <c:v>37.786047072941045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.814545042228204</c:v>
+                  <c:v>3.1651995703232654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.708389205083664</c:v>
+                  <c:v>15.572463600759207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30385792340915807</c:v>
+                  <c:v>0.1603701369888749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81864624879646508</c:v>
+                  <c:v>0.60739743255686462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0846231675759692</c:v>
+                  <c:v>1.5092489327306751</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53861166988673248</c:v>
+                  <c:v>0.76148979627324698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F36B-4A20-B82C-880C35A4472C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3501,6 +3592,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3559,7 +3651,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3636,17 +3728,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30.784016539302183</c:v>
+                  <c:v>56.844887153160776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.8278608913037</c:v>
+                  <c:v>107.73371713545689</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>0.56949753418232163</c:v>
+                  <c:v>1.0518270586399558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6094-406E-8A7F-0E836C70750B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3685,6 +3782,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3743,7 +3841,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3772,7 +3870,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3828,14 +3925,19 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>293702</c:v>
+                  <c:v>405707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92711</c:v>
+                  <c:v>149207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8FC-4DD0-951B-F2DE615AEF16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3873,14 +3975,19 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>163527</c:v>
+                  <c:v>57150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47367</c:v>
+                  <c:v>23213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8FC-4DD0-951B-F2DE615AEF16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3917,9 +4024,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3954,7 +4061,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -3993,7 +4099,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4022,7 +4128,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4078,14 +4183,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>18.142522126620626</c:v>
+                  <c:v>-0.41305186059727816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.226950237620613</c:v>
+                  <c:v>-2.4485128883301996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1D6-4CD2-9584-13D002569C90}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4123,14 +4233,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>28.934902666087851</c:v>
+                  <c:v>1.6851772124489486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.068797239496185</c:v>
+                  <c:v>4.3835588625939863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1D6-4CD2-9584-13D002569C90}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4172,9 +4287,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4255,7 +4370,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4284,7 +4399,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4327,11 +4441,16 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-585859.43742844288</c:v>
+                  <c:v>345117.62019459542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-312D-4625-9033-677DB9C6BE00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4366,11 +4485,16 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-163199.07242089079</c:v>
+                  <c:v>59959.788350687857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-312D-4625-9033-677DB9C6BE00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4405,11 +4529,16 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-123114.55024416612</c:v>
+                  <c:v>47968.531158385005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-312D-4625-9033-677DB9C6BE00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4444,11 +4573,16 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-2324.7599950532563</c:v>
+                  <c:v>1071.4974047786454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-312D-4625-9033-677DB9C6BE00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4483,11 +4617,16 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-109167.46464758387</c:v>
+                  <c:v>46839.75211791465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-312D-4625-9033-677DB9C6BE00}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4524,9 +4663,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4566,7 +4705,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -4605,7 +4743,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4736,26 +4874,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.14753684027894598</c:v>
+                  <c:v>7.7030250633949859E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.3201085821674692E-2</c:v>
+                  <c:v>-1.5017516025428446E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.963367281711665E-2</c:v>
+                  <c:v>-2.7199405908880536E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5316127532608431E-2</c:v>
+                  <c:v>-2.081711382805726E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1662398211169135E-2</c:v>
+                  <c:v>3.2105167850272232E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.546787898031969E-2</c:v>
+                  <c:v>4.1848054935924583E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A99E-4317-A4E6-B43B6F19AF2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4805,26 +4948,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-0.12813203174661159</c:v>
+                  <c:v>5.9545656594132024E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.3522775692457456E-2</c:v>
+                  <c:v>-2.1972723307550845E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8298275204830089E-2</c:v>
+                  <c:v>-4.5272990645165212E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6297300728525516E-2</c:v>
+                  <c:v>-0.41067918214384336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3575180562970733E-2</c:v>
+                  <c:v>2.1546032971619999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9356292482533596E-2</c:v>
+                  <c:v>3.0124224761626656E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A99E-4317-A4E6-B43B6F19AF2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4861,9 +5009,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4944,7 +5092,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5056,26 +5204,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-19.685799470612757</c:v>
+                  <c:v>1.4653198490197923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.1124205134578595</c:v>
+                  <c:v>0.98991316023715115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4992882023565102</c:v>
+                  <c:v>0.19579505471605785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.843457881484611</c:v>
+                  <c:v>33.21719834982126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.142522126620626</c:v>
+                  <c:v>-0.41305186059727816</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.934902666087851</c:v>
+                  <c:v>1.6851772124489486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0516-4B8C-A3D0-F812E29C478B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5125,26 +5278,31 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-19.914826617702282</c:v>
+                  <c:v>6.0358934869590755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.1691685568750394</c:v>
+                  <c:v>2.4583436637336078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43133656574202206</c:v>
+                  <c:v>0.69187617350759467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.724923981216705</c:v>
+                  <c:v>75.727546973258882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.226950237620613</c:v>
+                  <c:v>-2.4485128883301996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.068797239496185</c:v>
+                  <c:v>4.3835588625939863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0516-4B8C-A3D0-F812E29C478B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5181,9 +5339,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5218,7 +5376,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -5257,7 +5414,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5380,32 +5537,37 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.81259575311194876</c:v>
+                  <c:v>1.900102815382489</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1064811565760859</c:v>
+                  <c:v>-0.19780279112785903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5892967283748423E-2</c:v>
+                  <c:v>-0.11209198851081581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2074214612996134E-2</c:v>
+                  <c:v>2.5819461268989263E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.50101317282445768</c:v>
+                  <c:v>3.4931875408082846E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48218208301555099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10220457318793599</c:v>
+                  <c:v>-0.15793207808666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.8375824976188007E-2</c:v>
+                  <c:v>-7.4875447193957112E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8355-4D19-8239-E5EAF6A996A9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5452,6 +5614,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5518,7 +5681,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5555,7 +5718,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5604,17 +5766,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-11.616642119176621</c:v>
+                  <c:v>7.56173332192553</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-21.352787063655953</c:v>
+                  <c:v>13.942078776257276</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>-0.21510288297268965</c:v>
+                  <c:v>0.14000903572946255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3696-4185-B5BC-D814F7FD7C50}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5651,9 +5818,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5688,7 +5855,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -5713,7 +5879,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5751,7 +5917,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5799,6 +5964,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4252-43C8-BA8F-1A9617BA348E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5838,6 +6008,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4252-43C8-BA8F-1A9617BA348E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5884,6 +6059,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5939,7 +6115,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5971,7 +6146,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6003,7 +6184,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6035,7 +6222,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6067,7 +6260,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6099,7 +6298,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6131,7 +6336,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6163,7 +6374,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6195,7 +6412,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6227,7 +6450,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6264,7 +6493,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="http://blog.recursiveprocess.com/wp-content/uploads/2013/09/cat_with_calculator-600x450.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://blog.recursiveprocess.com/wp-content/uploads/2013/09/cat_with_calculator-600x450.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6324,7 +6559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://blog.recursiveprocess.com/wp-content/uploads/2013/09/cat_with_calculator-600x450.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://blog.recursiveprocess.com/wp-content/uploads/2013/09/cat_with_calculator-600x450.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6384,7 +6625,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="http://blog.recursiveprocess.com/wp-content/uploads/2013/09/cat_with_calculator-600x450.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://blog.recursiveprocess.com/wp-content/uploads/2013/09/cat_with_calculator-600x450.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6444,7 +6691,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6499,7 +6752,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6559,7 +6818,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6589,7 +6854,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6621,7 +6892,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6653,7 +6930,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6690,7 +6973,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6722,7 +7011,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6754,7 +7049,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6786,7 +7087,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6849,7 +7156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6882,9 +7189,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6917,6 +7241,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7106,7 +7447,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -7131,8 +7472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7174,24 +7515,24 @@
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="12">
         <f>SUM(J15:J20,F24:F27,E38:E40,E44:E48)</f>
-        <v>190817461.93365237</v>
+        <v>217773535.78311545</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="F3" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="14"/>
@@ -7199,29 +7540,29 @@
       <c r="J3" s="10"/>
       <c r="K3" s="16"/>
       <c r="L3" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="21">
         <f>C3/C7</f>
-        <v>53.055857849352492</v>
+        <v>58.144064695432903</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="14"/>
@@ -7229,25 +7570,25 @@
       <c r="J4" s="10"/>
       <c r="K4" s="16"/>
       <c r="L4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="24">
         <f>SUM(J15:J20)</f>
-        <v>105563670.32374437</v>
+        <v>134407682.13953516</v>
       </c>
       <c r="N4" s="25">
         <f>M4/$C$7</f>
-        <v>29.351459924039297</v>
+        <v>35.885944257558556</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="14"/>
@@ -7258,29 +7599,29 @@
       <c r="J5" s="10"/>
       <c r="K5" s="29"/>
       <c r="L5" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M5" s="24">
         <f>F24</f>
-        <v>8590766.4820663892</v>
+        <v>12595832.763609741</v>
       </c>
       <c r="N5" s="25">
         <f t="shared" ref="N5:N11" si="0">M5/$C$7</f>
-        <v>2.3886204159238615</v>
+        <v>3.3630023614511244</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="30">
         <f>SUM(M15:M20)</f>
-        <v>70.443503817694321</v>
+        <v>86.126266218140543</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="10"/>
@@ -7290,15 +7631,15 @@
       <c r="J6" s="10"/>
       <c r="K6" s="29"/>
       <c r="L6" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M6" s="24">
         <f>F25</f>
-        <v>57875365.5899093</v>
+        <v>58745138.403274603</v>
       </c>
       <c r="N6" s="25">
         <f t="shared" si="0"/>
-        <v>16.091961074218659</v>
+        <v>15.684555589270023</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -7309,7 +7650,7 @@
       </c>
       <c r="C7" s="32">
         <f>RawBaseline!C3</f>
-        <v>3596539</v>
+        <v>3745413</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="14"/>
@@ -7320,15 +7661,15 @@
       <c r="J7" s="10"/>
       <c r="K7" s="29"/>
       <c r="L7" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7" s="24">
         <f>F26</f>
-        <v>343689.09700000798</v>
+        <v>503947.85000004398</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="0"/>
-        <v>9.556106495717355E-2</v>
+        <v>0.13455067571988563</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -7336,11 +7677,11 @@
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="35">
         <f>RawBaseline!B3</f>
-        <v>439937</v>
+        <v>440263</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="14"/>
@@ -7351,15 +7692,15 @@
       <c r="J8" s="14"/>
       <c r="K8" s="29"/>
       <c r="L8" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" s="24">
         <f>F27</f>
-        <v>10151946.823307799</v>
+        <v>2144119.9397972901</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="0"/>
-        <v>2.8226989400942961</v>
+        <v>0.57246555714878178</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -7377,10 +7718,10 @@
       <c r="J9" s="14"/>
       <c r="K9" s="29"/>
       <c r="L9" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N9" s="25"/>
       <c r="P9" s="10"/>
@@ -7398,15 +7739,15 @@
       <c r="J10" s="14"/>
       <c r="K10" s="29"/>
       <c r="L10" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M10" s="24">
         <f>SUM(E38:E40)</f>
-        <v>5371220.4562855726</v>
+        <v>6244281.4312684126</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="0"/>
-        <v>1.4934414603277131</v>
+        <v>1.6671810108173417</v>
       </c>
       <c r="P10" s="10"/>
     </row>
@@ -7423,15 +7764,15 @@
       <c r="J11" s="14"/>
       <c r="K11" s="29"/>
       <c r="L11" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M11" s="39">
         <f>SUM(E44:E48)</f>
-        <v>2920803.1613388965</v>
+        <v>3132533.2556302315</v>
       </c>
       <c r="N11" s="40">
         <f t="shared" si="0"/>
-        <v>0.81211496979148468</v>
+        <v>0.83636524346720409</v>
       </c>
       <c r="P11" s="10"/>
     </row>
@@ -7454,7 +7795,7 @@
     </row>
     <row r="13" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -7466,31 +7807,31 @@
       <c r="J13" s="14"/>
       <c r="K13" s="29"/>
       <c r="L13" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I14" s="45" t="s">
         <v>17</v>
@@ -7500,362 +7841,362 @@
       </c>
       <c r="K14" s="47"/>
       <c r="L14" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M14" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="46" t="s">
         <v>119</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="46" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="49">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B15,RawBaseline!$D$24:$D$30)</f>
-        <v>2018676.7291772801</v>
-      </c>
-      <c r="D15" s="50">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B15,RawBaseline!$B$24:$B$30)</f>
-        <v>139739.37502232601</v>
-      </c>
-      <c r="E15" s="50">
-        <f>SUMIF(RawBaseline!$B$42:$H$42,'Baseline Metrics'!$B15,RawBaseline!$B$43:$H$43)</f>
-        <v>1991517</v>
-      </c>
-      <c r="F15" s="50">
-        <f>SUMIF(RawBaseline!$B$62:$H$62,'Baseline Metrics'!$B15,RawBaseline!$B$63:$H$63)</f>
-        <v>169147</v>
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B15,RawBaseline!$D$23:$D$30)</f>
+        <v>1982534.7314162899</v>
+      </c>
+      <c r="D15" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B15,RawBaseline!$B$23:$B$30)</f>
+        <v>146870.333044022</v>
+      </c>
+      <c r="E15" s="49">
+        <f>RawBaseline!E43</f>
+        <v>1845633</v>
+      </c>
+      <c r="F15" s="49">
+        <f>RawBaseline!E63</f>
+        <v>161956</v>
       </c>
       <c r="G15" s="51">
         <f>E15/$C$7</f>
-        <v>0.55373151799549514</v>
+        <v>0.49277155816995349</v>
       </c>
       <c r="H15" s="51">
         <f>F15/$C$8</f>
-        <v>0.3844800505526928</v>
+        <v>0.36786193706943349</v>
       </c>
       <c r="I15" s="52">
         <v>25</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" ref="J15:J20" si="1">C15*I15</f>
-        <v>50466918.229432002</v>
+        <v>49563368.285407245</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="56">
         <f t="shared" ref="M15:M20" si="2">C15/$C$7*$R$15</f>
-        <v>33.676988835832674</v>
+        <v>31.759403805395401</v>
       </c>
       <c r="N15" s="57">
         <f t="shared" ref="N15:N20" si="3">D15/$C$8*$R$15</f>
-        <v>19.058098094362514</v>
+        <v>20.015808693079634</v>
       </c>
       <c r="O15" s="58">
         <f t="shared" ref="O15:P20" si="4">C15/E15*60</f>
-        <v>60.818262535864264</v>
+        <v>64.450561885801449</v>
       </c>
       <c r="P15" s="59">
         <f t="shared" si="4"/>
-        <v>49.568496641025618</v>
+        <v>54.411197996007068</v>
       </c>
       <c r="R15" s="28">
         <v>60</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="60">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!B16,RawBaseline!$D$24:$D$30)</f>
-        <v>778804.26832954597</v>
-      </c>
-      <c r="D16" s="61">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B16,RawBaseline!$B$24:$B$30)</f>
-        <v>79644.664858888995</v>
-      </c>
-      <c r="E16" s="61">
-        <f>SUMIF(RawBaseline!$B$42:$H$42,'Baseline Metrics'!$B16,RawBaseline!$B$43:$H$43)</f>
-        <v>1411362</v>
-      </c>
-      <c r="F16" s="61">
-        <f>SUMIF(RawBaseline!$B$62:$H$62,'Baseline Metrics'!$B16,RawBaseline!$B$63:$H$63)</f>
-        <v>147760</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B16,RawBaseline!$D$23:$D$30)</f>
+        <v>935407.64071463002</v>
+      </c>
+      <c r="D16" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B16,RawBaseline!$B$23:$B$30)</f>
+        <v>95144.347853686995</v>
+      </c>
+      <c r="E16" s="49">
+        <f>RawBaseline!C43</f>
+        <v>1412252</v>
+      </c>
+      <c r="F16" s="49">
+        <f>RawBaseline!C63</f>
+        <v>149538</v>
       </c>
       <c r="G16" s="62">
         <f t="shared" ref="G16:G20" si="5">E16/$C$7</f>
-        <v>0.39242227041052524</v>
+        <v>0.3770617552723825</v>
       </c>
       <c r="H16" s="62">
         <f t="shared" ref="H16:H20" si="6">F16/$C$8</f>
-        <v>0.33586627176163858</v>
+        <v>0.33965606921317487</v>
       </c>
       <c r="I16" s="63">
         <v>25</v>
       </c>
       <c r="J16" s="64">
         <f t="shared" si="1"/>
-        <v>19470106.70823865</v>
+        <v>23385191.017865751</v>
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="65">
         <f t="shared" si="2"/>
-        <v>12.992562043612695</v>
+        <v>14.984851722060505</v>
       </c>
       <c r="N16" s="30">
         <f t="shared" si="3"/>
-        <v>10.862191385433233</v>
+        <v>12.966478834744731</v>
       </c>
       <c r="O16" s="66">
         <f t="shared" si="4"/>
-        <v>33.108625639469359</v>
+        <v>39.741107424792318</v>
       </c>
       <c r="P16" s="67">
         <f t="shared" si="4"/>
-        <v>32.340822222071871</v>
+        <v>38.175319124377879</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="60">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!B17,RawBaseline!$D$24:$D$30)</f>
-        <v>649827.74711748201</v>
-      </c>
-      <c r="D17" s="61">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B17,RawBaseline!$B$24:$B$30)</f>
-        <v>50174.221704896903</v>
-      </c>
-      <c r="E17" s="61">
-        <f>SUMIF(RawBaseline!$B$42:$H$42,'Baseline Metrics'!$B17,RawBaseline!$B$43:$H$43)</f>
-        <v>1037976</v>
-      </c>
-      <c r="F17" s="61">
-        <f>SUMIF(RawBaseline!$B$62:$H$62,'Baseline Metrics'!$B17,RawBaseline!$B$63:$H$63)</f>
-        <v>86538</v>
+        <v>59</v>
+      </c>
+      <c r="C17" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B17,RawBaseline!$D$23:$D$30)</f>
+        <v>615282.93037830701</v>
+      </c>
+      <c r="D17" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B17,RawBaseline!$B$23:$B$30)</f>
+        <v>58471.533332225998</v>
+      </c>
+      <c r="E17" s="49">
+        <f>RawBaseline!D43</f>
+        <v>942434</v>
+      </c>
+      <c r="F17" s="49">
+        <f>RawBaseline!D63</f>
+        <v>95276</v>
       </c>
       <c r="G17" s="62">
         <f t="shared" si="5"/>
-        <v>0.28860412746810199</v>
+        <v>0.25162351922204573</v>
       </c>
       <c r="H17" s="62">
         <f t="shared" si="6"/>
-        <v>0.19670543736944154</v>
+        <v>0.21640701126372192</v>
       </c>
       <c r="I17" s="63">
         <v>25</v>
       </c>
       <c r="J17" s="64">
         <f t="shared" si="1"/>
-        <v>16245693.677937049</v>
+        <v>15382073.259457676</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="65">
         <f t="shared" si="2"/>
-        <v>10.840884758110207</v>
+        <v>9.8565834589398875</v>
       </c>
       <c r="N17" s="30">
         <f t="shared" si="3"/>
-        <v>6.8429191049941567</v>
+        <v>7.9686278427520811</v>
       </c>
       <c r="O17" s="66">
         <f t="shared" si="4"/>
-        <v>37.563166033751187</v>
+        <v>39.171948192338583</v>
       </c>
       <c r="P17" s="67">
         <f t="shared" si="4"/>
-        <v>34.787645916173403</v>
+        <v>36.822410679851799</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="60">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!B18,RawBaseline!$D$24:$D$30)</f>
-        <v>266855.12199998403</v>
-      </c>
-      <c r="D18" s="61">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B18,RawBaseline!$B$24:$B$30)</f>
-        <v>55902.4481666668</v>
-      </c>
-      <c r="E18" s="61">
-        <f>SUMIF(RawBaseline!$B$42:$H$42,'Baseline Metrics'!$B18,RawBaseline!$B$43:$H$43)</f>
-        <v>203525</v>
-      </c>
-      <c r="F18" s="61">
-        <f>SUMIF(RawBaseline!$B$62:$H$62,'Baseline Metrics'!$B18,RawBaseline!$B$63:$H$63)</f>
-        <v>42404</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B18,RawBaseline!$D$23:$D$30)</f>
+        <v>308150.83533886302</v>
+      </c>
+      <c r="D18" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B18,RawBaseline!$B$23:$B$30)</f>
+        <v>51303.543470418699</v>
+      </c>
+      <c r="E18" s="49">
+        <f>RawScenario!G43</f>
+        <v>362554</v>
+      </c>
+      <c r="F18" s="49">
+        <f>RawBaseline!G43</f>
+        <v>222764</v>
       </c>
       <c r="G18" s="62">
         <f t="shared" si="5"/>
-        <v>5.6589126379555453E-2</v>
+        <v>9.6799471780548638E-2</v>
       </c>
       <c r="H18" s="62">
         <f t="shared" si="6"/>
-        <v>9.6386528071064723E-2</v>
+        <v>0.5059793805066517</v>
       </c>
       <c r="I18" s="63">
         <v>25</v>
       </c>
       <c r="J18" s="64">
         <f t="shared" si="1"/>
-        <v>6671378.0499996003</v>
+        <v>7703770.8834715756</v>
       </c>
       <c r="K18" s="54"/>
       <c r="L18" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="65">
         <f t="shared" si="2"/>
-        <v>4.4518653405396247</v>
+        <v>4.9364516330593666</v>
       </c>
       <c r="N18" s="30">
         <f t="shared" si="3"/>
-        <v>7.6241527536897502</v>
+        <v>6.9917585811778906</v>
       </c>
       <c r="O18" s="66">
         <f t="shared" si="4"/>
-        <v>78.669978233627518</v>
+        <v>50.996679447287249</v>
       </c>
       <c r="P18" s="67">
         <f t="shared" si="4"/>
-        <v>79.099775728705026</v>
+        <v>13.818267800116365</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="60">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!B19,RawBaseline!$D$24:$D$30)</f>
-        <v>477346.91556607798</v>
-      </c>
-      <c r="D19" s="61">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B19,RawBaseline!$B$24:$B$30)</f>
-        <v>88930.7968362213</v>
-      </c>
-      <c r="E19" s="61">
-        <f>SUMIF(RawBaseline!$B$42:$H$42,'Baseline Metrics'!$B19,RawBaseline!$B$43:$H$43)</f>
-        <v>476471</v>
-      </c>
-      <c r="F19" s="61">
-        <f>SUMIF(RawBaseline!$B$62:$H$62,'Baseline Metrics'!$B19,RawBaseline!$B$63:$H$63)</f>
-        <v>84166</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B19,RawBaseline!$D$23:$D$30)</f>
+        <v>1396649.27340612</v>
+      </c>
+      <c r="D19" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B19,RawBaseline!$B$23:$B$30)</f>
+        <v>210568.17040205299</v>
+      </c>
+      <c r="E19" s="49">
+        <f>RawBaseline!H43</f>
+        <v>921680</v>
+      </c>
+      <c r="F19" s="49">
+        <f>RawBaseline!H63</f>
+        <v>125840</v>
       </c>
       <c r="G19" s="62">
         <f t="shared" si="5"/>
-        <v>0.13248042076006961</v>
+        <v>0.2460823412531542</v>
       </c>
       <c r="H19" s="62">
         <f t="shared" si="6"/>
-        <v>0.19131375628783212</v>
+        <v>0.28582915212043708</v>
       </c>
       <c r="I19" s="63">
         <v>25</v>
       </c>
       <c r="J19" s="64">
         <f t="shared" si="1"/>
-        <v>11933672.889151949</v>
+        <v>34916231.835152999</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="65">
         <f t="shared" si="2"/>
-        <v>7.9634378868030282</v>
+        <v>22.373755952779359</v>
       </c>
       <c r="N19" s="30">
         <f t="shared" si="3"/>
-        <v>12.128663445387131</v>
+        <v>28.696688625033627</v>
       </c>
       <c r="O19" s="66">
         <f t="shared" si="4"/>
-        <v>60.110300383369982</v>
+        <v>90.919794727418633</v>
       </c>
       <c r="P19" s="67">
         <f t="shared" si="4"/>
-        <v>63.396713758207326</v>
+        <v>100.39804691769849</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="69">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!B20,RawBaseline!$D$24:$D$30)</f>
-        <v>31036.030759405701</v>
-      </c>
-      <c r="D20" s="70">
-        <f>SUMIF(RawBaseline!$A$24:$A$30,'Baseline Metrics'!$B20,RawBaseline!$B$24:$B$30)</f>
-        <v>7109.3169051744599</v>
-      </c>
-      <c r="E20" s="70">
-        <f>SUMIF(RawBaseline!$B$42:$H$42,'Baseline Metrics'!$B20,RawBaseline!$B$43:$H$43)</f>
-        <v>50755</v>
-      </c>
-      <c r="F20" s="70">
-        <f>SUMIF(RawBaseline!$B$62:$H$62,'Baseline Metrics'!$B20,RawBaseline!$B$63:$H$63)</f>
-        <v>10471</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B20,RawBaseline!$D$23:$D$30)</f>
+        <v>138281.874327197</v>
+      </c>
+      <c r="D20" s="49">
+        <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B20,RawBaseline!$B$23:$B$30)</f>
+        <v>20078.151816686699</v>
+      </c>
+      <c r="E20" s="49">
+        <f>RawBaseline!B43</f>
+        <v>135714</v>
+      </c>
+      <c r="F20" s="49">
+        <f>RawBaseline!B63</f>
+        <v>19872</v>
       </c>
       <c r="G20" s="71">
         <f t="shared" si="5"/>
-        <v>1.4112178402625413E-2</v>
+        <v>3.6234722312332442E-2</v>
       </c>
       <c r="H20" s="71">
         <f t="shared" si="6"/>
-        <v>2.3801135162534636E-2</v>
+        <v>4.5136656952775953E-2</v>
       </c>
       <c r="I20" s="72">
         <v>25</v>
       </c>
       <c r="J20" s="73">
         <f t="shared" si="1"/>
-        <v>775900.76898514258</v>
+        <v>3457046.858179925</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="75">
         <f t="shared" si="2"/>
-        <v>0.51776495279610257</v>
+        <v>2.215219645906024</v>
       </c>
       <c r="N20" s="76">
         <f t="shared" si="3"/>
-        <v>0.96959113307238898</v>
+        <v>2.7362942354937889</v>
       </c>
       <c r="O20" s="77">
         <f t="shared" si="4"/>
-        <v>36.689229545155001</v>
+        <v>61.135273145230556</v>
       </c>
       <c r="P20" s="78">
         <f t="shared" si="4"/>
-        <v>40.737180241664369</v>
+        <v>60.622439060044385</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -7875,16 +8216,16 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="83" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="84" t="s">
         <v>1</v>
@@ -7900,19 +8241,19 @@
       </c>
       <c r="G23" s="28"/>
       <c r="L23" s="83" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O23" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="46" t="s">
         <v>70</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
@@ -7921,18 +8262,18 @@
       </c>
       <c r="C24" s="85">
         <f>SUM(RawBaseline!C25:C27)</f>
-        <v>8590766.4820663892</v>
+        <v>12595832.763609741</v>
       </c>
       <c r="D24" s="86">
         <f>SUM(RawBaseline!E25:E27)</f>
-        <v>631424.90400907397</v>
+        <v>926729.70397227502</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" s="53">
         <f>C24</f>
-        <v>8590766.4820663892</v>
+        <v>12595832.763609741</v>
       </c>
       <c r="G24" s="28"/>
       <c r="J24" s="87"/>
@@ -7941,19 +8282,19 @@
       </c>
       <c r="M24" s="88">
         <f>C24/$C$7</f>
-        <v>2.3886204159238615</v>
+        <v>3.3630023614511244</v>
       </c>
       <c r="N24" s="89">
         <f>D24/$C$8</f>
-        <v>1.4352621034581632</v>
+        <v>2.1049456892182059</v>
       </c>
       <c r="O24" s="90">
         <f>C24/E15</f>
-        <v>4.3136797135381668</v>
+        <v>6.8246681564589169</v>
       </c>
       <c r="P24" s="91">
         <f>D24/F15</f>
-        <v>3.7329949925749437</v>
+        <v>5.7221078809817172</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -7962,18 +8303,18 @@
       </c>
       <c r="C25" s="60">
         <f>F25/E25</f>
-        <v>2755969.789995681</v>
+        <v>2797387.5430130763</v>
       </c>
       <c r="D25" s="61">
         <f>RawBaseline!C84/'Baseline Metrics'!E25</f>
-        <v>267263.59761901473</v>
+        <v>256461.37126982238</v>
       </c>
       <c r="E25" s="63">
         <v>21</v>
       </c>
       <c r="F25" s="92">
         <f>RawBaseline!C83</f>
-        <v>57875365.5899093</v>
+        <v>58745138.403274603</v>
       </c>
       <c r="G25" s="28"/>
       <c r="L25" s="55" t="s">
@@ -7981,49 +8322,49 @@
       </c>
       <c r="M25" s="93">
         <f>C25/C7</f>
-        <v>0.76628386067707899</v>
+        <v>0.7468835994890487</v>
       </c>
       <c r="N25" s="94">
         <f>D25/C8</f>
-        <v>0.60750425087913662</v>
+        <v>0.58251856565239957</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="95"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="96">
         <f>RawBaseline!C29</f>
-        <v>343689.09700000798</v>
+        <v>503947.85000004398</v>
       </c>
       <c r="D26" s="80">
         <f>RawBaseline!E29</f>
-        <v>50639.096000000602</v>
+        <v>84778.318999997005</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="64">
         <f>C26</f>
-        <v>343689.09700000798</v>
+        <v>503947.85000004398</v>
       </c>
       <c r="G26" s="28"/>
       <c r="L26" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" s="97">
         <f>C26/$C$7</f>
-        <v>9.556106495717355E-2</v>
+        <v>0.13455067571988563</v>
       </c>
       <c r="N26" s="41">
         <f>D26/$C$8</f>
-        <v>0.11510533553668048</v>
+        <v>0.19256289763163612</v>
       </c>
       <c r="O26" s="98">
         <f>C26/E18</f>
-        <v>1.6886824567006902</v>
+        <v>1.389993904356438</v>
       </c>
       <c r="P26" s="95"/>
     </row>
@@ -8033,18 +8374,18 @@
       </c>
       <c r="C27" s="99">
         <f>RawBaseline!C85</f>
-        <v>10151946.823307799</v>
+        <v>2144119.9397972901</v>
       </c>
       <c r="D27" s="100">
         <f>RawBaseline!C86</f>
-        <v>668296.68320000102</v>
+        <v>125951.76311584099</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="73">
         <f>C27</f>
-        <v>10151946.823307799</v>
+        <v>2144119.9397972901</v>
       </c>
       <c r="G27" s="28"/>
       <c r="L27" s="74" t="s">
@@ -8052,24 +8393,24 @@
       </c>
       <c r="M27" s="101">
         <f>C27/$C$7</f>
-        <v>2.8226989400942961</v>
+        <v>0.57246555714878178</v>
       </c>
       <c r="N27" s="102">
         <f>D27/$C$8</f>
-        <v>1.519073601902093</v>
+        <v>0.28608300746563076</v>
       </c>
       <c r="O27" s="103">
         <f>C27/E15</f>
-        <v>5.0975948602536656</v>
+        <v>1.1617260526861461</v>
       </c>
       <c r="P27" s="104">
         <f>D27/F15</f>
-        <v>3.9509815911603576</v>
+        <v>0.77769124401591172</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
@@ -8083,10 +8424,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>74</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -8101,15 +8442,15 @@
     </row>
     <row r="31" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B31" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="105">
+        <v>50</v>
+      </c>
+      <c r="C31" s="66">
         <f>O19</f>
-        <v>60.110300383369982</v>
+        <v>90.919794727418633</v>
       </c>
       <c r="D31" s="66">
         <f>P19</f>
-        <v>63.396713758207326</v>
+        <v>100.39804691769849</v>
       </c>
       <c r="E31" s="79"/>
       <c r="F31" s="106"/>
@@ -8130,19 +8471,19 @@
       </c>
       <c r="C32" s="61">
         <f>E19</f>
-        <v>476471</v>
+        <v>921680</v>
       </c>
       <c r="D32" s="61">
         <f>F19</f>
-        <v>84166</v>
+        <v>125840</v>
       </c>
       <c r="E32" s="107">
         <f>G19</f>
-        <v>0.13248042076006961</v>
+        <v>0.2460823412531542</v>
       </c>
       <c r="F32" s="108">
         <f>H19</f>
-        <v>0.19131375628783212</v>
+        <v>0.28582915212043708</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -8161,11 +8502,11 @@
       </c>
       <c r="C33" s="105">
         <f>O20</f>
-        <v>36.689229545155001</v>
+        <v>61.135273145230556</v>
       </c>
       <c r="D33" s="66">
         <f>P20</f>
-        <v>40.737180241664369</v>
+        <v>60.622439060044385</v>
       </c>
       <c r="E33" s="79"/>
       <c r="F33" s="106"/>
@@ -8186,19 +8527,19 @@
       </c>
       <c r="C34" s="70">
         <f>E20</f>
-        <v>50755</v>
+        <v>135714</v>
       </c>
       <c r="D34" s="70">
         <f>F20</f>
-        <v>10471</v>
+        <v>19872</v>
       </c>
       <c r="E34" s="109">
         <f>G20</f>
-        <v>1.4112178402625413E-2</v>
+        <v>3.6234722312332442E-2</v>
       </c>
       <c r="F34" s="110">
         <f>H20</f>
-        <v>2.3801135162534636E-2</v>
+        <v>4.5136656952775953E-2</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -8213,7 +8554,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -8243,14 +8584,14 @@
       </c>
       <c r="C38" s="66">
         <f>SUM(RawBaseline!H163:H166)</f>
-        <v>42.400658658478804</v>
+        <v>49.283153831235246</v>
       </c>
       <c r="D38" s="63">
         <v>75500</v>
       </c>
       <c r="E38" s="64">
         <f>D38*C38</f>
-        <v>3201249.7287151497</v>
+        <v>3720878.1142582609</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -8270,14 +8611,14 @@
       </c>
       <c r="C39" s="66">
         <f>SUM(RawBaseline!G163:G166)</f>
-        <v>80.180647954959653</v>
+        <v>93.791638359199609</v>
       </c>
       <c r="D39" s="63">
         <v>2600</v>
       </c>
       <c r="E39" s="64">
         <f>D39*C39</f>
-        <v>208469.68468289511</v>
+        <v>243858.259733919</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -8297,7 +8638,7 @@
       </c>
       <c r="C40" s="111">
         <f>SUM(RawBaseline!I163:I166)</f>
-        <v>0.78460041715501128</v>
+        <v>0.9118180229104933</v>
       </c>
       <c r="D40" s="100">
         <f>2500000</f>
@@ -8305,7 +8646,7 @@
       </c>
       <c r="E40" s="73">
         <f>D40*C40</f>
-        <v>1961501.0428875282</v>
+        <v>2279545.0572762331</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -8338,12 +8679,12 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>1</v>
@@ -8368,16 +8709,19 @@
       </c>
       <c r="C44" s="66">
         <f>SUM(RawBaseline!B123:E123)</f>
-        <v>35356.349408782829</v>
+        <v>38724.59749134205</v>
       </c>
       <c r="D44" s="114">
         <v>55.34</v>
       </c>
       <c r="E44" s="64">
         <f>D44*C44</f>
-        <v>1956620.3762820419</v>
-      </c>
-      <c r="G44" s="79"/>
+        <v>2143019.2251708694</v>
+      </c>
+      <c r="G44" s="145">
+        <f>C44/$C$7</f>
+        <v>1.0339206248107231E-2</v>
+      </c>
       <c r="H44" s="79"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -8391,16 +8735,19 @@
       </c>
       <c r="C45" s="66">
         <f>SUM(RawBaseline!B124:E124)</f>
-        <v>1007.9958512760055</v>
+        <v>1025.3979334328585</v>
       </c>
       <c r="D45" s="114">
         <v>380</v>
       </c>
       <c r="E45" s="64">
         <f>D45*C45</f>
-        <v>383038.42348488211</v>
-      </c>
-      <c r="G45" s="79"/>
+        <v>389651.21470448625</v>
+      </c>
+      <c r="G45" s="145">
+        <f t="shared" ref="G45:G48" si="7">C45/$C$7</f>
+        <v>2.7377432967548798E-4</v>
+      </c>
       <c r="H45" s="79"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -8414,16 +8761,19 @@
       </c>
       <c r="C46" s="66">
         <f>SUM(RawBaseline!B125:E125)</f>
-        <v>31.943490089540237</v>
+        <v>33.09612645810472</v>
       </c>
       <c r="D46" s="114">
         <v>9800</v>
       </c>
       <c r="E46" s="64">
         <f>D46*C46</f>
-        <v>313046.20287749433</v>
-      </c>
-      <c r="G46" s="79"/>
+        <v>324342.03928942623</v>
+      </c>
+      <c r="G46" s="145">
+        <f t="shared" si="7"/>
+        <v>8.8364424585765892E-6</v>
+      </c>
       <c r="H46" s="79"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -8437,16 +8787,19 @@
       </c>
       <c r="C47" s="66">
         <f>SUM(RawBaseline!B126:E126)</f>
-        <v>0.94472975398563142</v>
+        <v>1.0416366083911421</v>
       </c>
       <c r="D47" s="114">
         <v>7800</v>
       </c>
       <c r="E47" s="64">
         <f>D47*C47</f>
-        <v>7368.8920810879254</v>
-      </c>
-      <c r="G47" s="79"/>
+        <v>8124.7655454509086</v>
+      </c>
+      <c r="G47" s="145">
+        <f t="shared" si="7"/>
+        <v>2.7810994632398138E-7</v>
+      </c>
       <c r="H47" s="79"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -8460,16 +8813,19 @@
       </c>
       <c r="C48" s="77">
         <f>SUM(RawBaseline!B127:E127)</f>
-        <v>40.112194863598447</v>
+        <v>41.137847833845989</v>
       </c>
       <c r="D48" s="115">
         <v>6500</v>
       </c>
       <c r="E48" s="73">
         <f>D48*C48</f>
-        <v>260729.26661338989</v>
-      </c>
-      <c r="G48" s="79"/>
+        <v>267396.01091999892</v>
+      </c>
+      <c r="G48" s="145">
+        <f t="shared" si="7"/>
+        <v>1.0983527806905671E-5</v>
+      </c>
       <c r="H48" s="79"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
@@ -8493,7 +8849,7 @@
     </row>
     <row r="50" spans="2:16" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -8529,7 +8885,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52" s="79"/>
@@ -8571,8 +8927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8597,7 +8953,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -8614,24 +8970,24 @@
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="12">
         <f>SUM(J15:J20,F24:F27,E38:E40,E44:E48)</f>
-        <v>280064348.43993664</v>
+        <v>284204392.15479773</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="F3" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="14"/>
@@ -8639,29 +8995,29 @@
       <c r="J3" s="10"/>
       <c r="K3" s="16"/>
       <c r="L3" s="120" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M3" s="121" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N3" s="122" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="21">
         <f>C3/C7</f>
-        <v>77.870516193467282</v>
+        <v>59.562216542573175</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="14"/>
@@ -8669,25 +9025,25 @@
       <c r="J4" s="10"/>
       <c r="K4" s="16"/>
       <c r="L4" s="123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="24">
         <f>SUM(J15:J20)</f>
-        <v>117253799.59295037</v>
+        <v>180298201.84112722</v>
       </c>
       <c r="N4" s="25">
         <f>M4/$C$7</f>
-        <v>32.601842936487095</v>
+        <v>37.786047072941045</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="14"/>
@@ -8698,29 +9054,29 @@
       <c r="J5" s="10"/>
       <c r="K5" s="29"/>
       <c r="L5" s="123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M5" s="24">
         <f>F24</f>
-        <v>96439557.011630386</v>
+        <v>15102923.835773829</v>
       </c>
       <c r="N5" s="25">
         <f t="shared" ref="N5:N11" si="0">M5/$C$7</f>
-        <v>26.814545042228204</v>
+        <v>3.1651995703232654</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="30">
         <f>SUM(M15:M20)</f>
-        <v>78.244423047569043</v>
+        <v>90.68651297505852</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="10"/>
@@ -8730,15 +9086,15 @@
       <c r="J6" s="10"/>
       <c r="K6" s="29"/>
       <c r="L6" s="123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M6" s="24">
         <f>F25</f>
-        <v>56495834.403262399</v>
+        <v>74304866.556520596</v>
       </c>
       <c r="N6" s="25">
         <f t="shared" si="0"/>
-        <v>15.708389205083664</v>
+        <v>15.572463600759207</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -8749,7 +9105,7 @@
       </c>
       <c r="C7" s="37">
         <f>RawScenario!C3</f>
-        <v>3596539</v>
+        <v>4771555</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="14"/>
@@ -8760,15 +9116,15 @@
       <c r="J7" s="10"/>
       <c r="K7" s="29"/>
       <c r="L7" s="123" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7" s="24">
         <f>F26</f>
-        <v>1092836.87200005</v>
+        <v>765214.92899995099</v>
       </c>
       <c r="N7" s="25">
         <f t="shared" si="0"/>
-        <v>0.30385792340915807</v>
+        <v>0.1603701369888749</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -8776,11 +9132,11 @@
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="124">
         <f>RawScenario!B3</f>
-        <v>620863</v>
+        <v>894825</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="14"/>
@@ -8791,15 +9147,15 @@
       <c r="J8" s="14"/>
       <c r="K8" s="29"/>
       <c r="L8" s="123" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" s="24">
         <f>F27</f>
-        <v>2944293.1610001898</v>
+        <v>2898230.2563038701</v>
       </c>
       <c r="N8" s="25">
         <f t="shared" si="0"/>
-        <v>0.81864624879646508</v>
+        <v>0.60739743255686462</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -8817,10 +9173,10 @@
       <c r="J9" s="14"/>
       <c r="K9" s="29"/>
       <c r="L9" s="123" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N9" s="25"/>
       <c r="P9" s="10"/>
@@ -8838,15 +9194,15 @@
       <c r="J10" s="14"/>
       <c r="K10" s="29"/>
       <c r="L10" s="123" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M10" s="24">
         <f>SUM(E38:E40)</f>
-        <v>3900889.5224905084</v>
+        <v>7201464.2912157159</v>
       </c>
       <c r="N10" s="25">
         <f t="shared" si="0"/>
-        <v>1.0846231675759692</v>
+        <v>1.5092489327306751</v>
       </c>
       <c r="P10" s="10"/>
     </row>
@@ -8863,15 +9219,15 @@
       <c r="J11" s="14"/>
       <c r="K11" s="29"/>
       <c r="L11" s="125" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M11" s="39">
         <f>SUM(E44:E48)</f>
-        <v>1937137.8766027589</v>
+        <v>3633490.4448565929</v>
       </c>
       <c r="N11" s="40">
         <f t="shared" si="0"/>
-        <v>0.53861166988673248</v>
+        <v>0.76148979627324698</v>
       </c>
       <c r="P11" s="10"/>
     </row>
@@ -8894,7 +9250,7 @@
     </row>
     <row r="13" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -8906,31 +9262,31 @@
       <c r="J13" s="14"/>
       <c r="K13" s="29"/>
       <c r="L13" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I14" s="45" t="s">
         <v>17</v>
@@ -8940,362 +9296,362 @@
       </c>
       <c r="K14" s="47"/>
       <c r="L14" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M14" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="46" t="s">
         <v>119</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="46" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="49">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B15,RawScenario!$D$24:$D$30)</f>
-        <v>1001503.4938285101</v>
-      </c>
-      <c r="D15" s="50">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B15,RawScenario!$B$24:$B$30)</f>
-        <v>78659.819331701205</v>
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B15,RawScenario!$D$23:$D$30)</f>
+        <v>2623498.2341630999</v>
+      </c>
+      <c r="D15" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B15,RawScenario!$B$23:$B$30)</f>
+        <v>385304.87288529699</v>
       </c>
       <c r="E15" s="50">
-        <f>SUMIF(RawScenario!$B$42:$H$42,'Scenario Metrics'!$B15,RawScenario!$B$43:$H$43)</f>
-        <v>1460895</v>
+        <f>RawScenario!E43</f>
+        <v>2388042</v>
       </c>
       <c r="F15" s="50">
-        <f>SUMIF(RawScenario!$B$62:$H$62,'Scenario Metrics'!$B15,RawScenario!$B$63:$H$63)</f>
-        <v>159157</v>
+        <f>RawScenario!E63</f>
+        <v>382455</v>
       </c>
       <c r="G15" s="51">
         <f>E15/$C$7</f>
-        <v>0.40619467771654916</v>
+        <v>0.50047458323334848</v>
       </c>
       <c r="H15" s="51">
         <f>F15/$C$8</f>
-        <v>0.25634801880608121</v>
+        <v>0.42740759366356551</v>
       </c>
       <c r="I15" s="52">
         <v>25</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" ref="J15:J20" si="1">C15*I15</f>
-        <v>25037587.345712751</v>
+        <v>65587455.854077496</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="M15" s="56">
-        <f t="shared" ref="M15:M20" si="2">C15/$C$7*$R$15</f>
-        <v>16.707787578477699</v>
+        <v>60</v>
+      </c>
+      <c r="M15" s="144">
+        <f>C15/$C$7*$R$15</f>
+        <v>32.989223439693355</v>
       </c>
       <c r="N15" s="57">
-        <f t="shared" ref="N15:N20" si="3">D15/$C$8*$R$15</f>
-        <v>7.6016595608082165</v>
+        <f t="shared" ref="N15:N20" si="2">D15/$C$8*$R$15</f>
+        <v>25.835545914695967</v>
       </c>
       <c r="O15" s="58">
-        <f t="shared" ref="O15:P20" si="4">C15/E15*60</f>
-        <v>41.132463065251507</v>
+        <f>C15/E15*60</f>
+        <v>65.915881734821241</v>
       </c>
       <c r="P15" s="59">
-        <f t="shared" si="4"/>
-        <v>29.653670023323336</v>
+        <f t="shared" ref="O15:P20" si="3">D15/F15*60</f>
+        <v>60.447091482966144</v>
       </c>
       <c r="R15" s="28">
         <v>60</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="60">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!B16,RawScenario!$D$24:$D$30)</f>
-        <v>667427.33668609895</v>
-      </c>
-      <c r="D16" s="61">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B16,RawScenario!$B$24:$B$30)</f>
-        <v>73755.209582346695</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B16,RawScenario!$D$23:$D$30)</f>
+        <v>1172723.47158211</v>
+      </c>
+      <c r="D16" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B16,RawScenario!$B$23:$B$30)</f>
+        <v>192516.19924065401</v>
       </c>
       <c r="E16" s="61">
-        <f>SUMIF(RawScenario!$B$42:$H$42,'Scenario Metrics'!$B16,RawScenario!$B$43:$H$43)</f>
-        <v>1291953</v>
+        <f>RawScenario!C43</f>
+        <v>1727514</v>
       </c>
       <c r="F16" s="61">
-        <f>SUMIF(RawScenario!$B$62:$H$62,'Scenario Metrics'!$B16,RawScenario!$B$63:$H$63)</f>
-        <v>169088</v>
+        <f>RawScenario!C63</f>
+        <v>284271</v>
       </c>
       <c r="G16" s="62">
-        <f t="shared" ref="G16:G20" si="5">E16/$C$7</f>
-        <v>0.35922118458885055</v>
+        <f t="shared" ref="G16:G20" si="4">E16/$C$7</f>
+        <v>0.36204423924695406</v>
       </c>
       <c r="H16" s="62">
-        <f t="shared" ref="H16:H20" si="6">F16/$C$8</f>
-        <v>0.27234349606918112</v>
+        <f t="shared" ref="H16:H20" si="5">F16/$C$8</f>
+        <v>0.31768334590562403</v>
       </c>
       <c r="I16" s="63">
         <v>25</v>
       </c>
       <c r="J16" s="64">
         <f t="shared" si="1"/>
-        <v>16685683.417152474</v>
+        <v>29318086.789552752</v>
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="65">
+        <f t="shared" ref="M15:M20" si="6">C16/$C$7*$R$15</f>
+        <v>14.746431361459022</v>
+      </c>
+      <c r="N16" s="30">
         <f t="shared" si="2"/>
-        <v>11.134493523124853</v>
-      </c>
-      <c r="N16" s="30">
+        <v>12.908637950928105</v>
+      </c>
+      <c r="O16" s="66">
         <f t="shared" si="3"/>
-        <v>7.1276796570915026</v>
-      </c>
-      <c r="O16" s="66">
-        <f t="shared" si="4"/>
-        <v>30.9962051260115</v>
+        <v>40.731020585029469</v>
       </c>
       <c r="P16" s="67">
-        <f t="shared" si="4"/>
-        <v>26.171653665196832</v>
+        <f t="shared" si="3"/>
+        <v>40.633662788111486</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="60">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!B17,RawScenario!$D$24:$D$30)</f>
-        <v>930986.44054543995</v>
-      </c>
-      <c r="D17" s="61">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B17,RawScenario!$B$24:$B$30)</f>
-        <v>94211.298895597094</v>
+        <v>59</v>
+      </c>
+      <c r="C17" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B17,RawScenario!$D$23:$D$30)</f>
+        <v>702617.10985991603</v>
+      </c>
+      <c r="D17" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B17,RawScenario!$B$23:$B$30)</f>
+        <v>95745.838621486502</v>
       </c>
       <c r="E17" s="61">
-        <f>SUMIF(RawScenario!$B$42:$H$42,'Scenario Metrics'!$B17,RawScenario!$B$43:$H$43)</f>
-        <v>1360347</v>
+        <f>RawScenario!D43</f>
+        <v>1070852</v>
       </c>
       <c r="F17" s="61">
-        <f>SUMIF(RawScenario!$B$62:$H$62,'Scenario Metrics'!$B17,RawScenario!$B$63:$H$63)</f>
-        <v>164531</v>
+        <f>RawScenario!D63</f>
+        <v>153135</v>
       </c>
       <c r="G17" s="62">
+        <f t="shared" si="4"/>
+        <v>0.2244241133131652</v>
+      </c>
+      <c r="H17" s="62">
         <f t="shared" si="5"/>
-        <v>0.37823780028521864</v>
-      </c>
-      <c r="H17" s="62">
-        <f t="shared" si="6"/>
-        <v>0.26500371257427163</v>
+        <v>0.1711340206185567</v>
       </c>
       <c r="I17" s="63">
         <v>25</v>
       </c>
       <c r="J17" s="64">
         <f t="shared" si="1"/>
-        <v>23274661.013636</v>
+        <v>17565427.746497899</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="65">
+        <f t="shared" si="6"/>
+        <v>8.8350708713605854</v>
+      </c>
+      <c r="N17" s="30">
         <f t="shared" si="2"/>
-        <v>15.531372364577834</v>
-      </c>
-      <c r="N17" s="30">
+        <v>6.4199707398532562</v>
+      </c>
+      <c r="O17" s="66">
         <f t="shared" si="3"/>
-        <v>9.104549528214477</v>
-      </c>
-      <c r="O17" s="66">
-        <f t="shared" si="4"/>
-        <v>41.062454236107698</v>
+        <v>39.367743247054641</v>
       </c>
       <c r="P17" s="67">
-        <f t="shared" si="4"/>
-        <v>34.356309350431381</v>
+        <f t="shared" si="3"/>
+        <v>37.514286853359394</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="60">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!B18,RawScenario!$D$24:$D$30)</f>
-        <v>851396.689833357</v>
-      </c>
-      <c r="D18" s="61">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B18,RawScenario!$B$24:$B$30)</f>
-        <v>205178.34216666399</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B18,RawScenario!$D$23:$D$30)</f>
+        <v>508867.97084754799</v>
+      </c>
+      <c r="D18" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B18,RawScenario!$B$23:$B$30)</f>
+        <v>127269.974107152</v>
       </c>
       <c r="E18" s="61">
-        <f>SUMIF(RawScenario!$B$42:$H$42,'Scenario Metrics'!$B18,RawScenario!$B$43:$H$43)</f>
-        <v>438437</v>
+        <f>RawScenario!G43</f>
+        <v>362554</v>
       </c>
       <c r="F18" s="61">
-        <f>SUMIF(RawScenario!$B$62:$H$62,'Scenario Metrics'!$B18,RawScenario!$B$63:$H$63)</f>
-        <v>107213</v>
+        <f>RawScenario!G63</f>
+        <v>85277</v>
       </c>
       <c r="G18" s="62">
+        <f t="shared" si="4"/>
+        <v>7.5982357952491378E-2</v>
+      </c>
+      <c r="H18" s="62">
         <f t="shared" si="5"/>
-        <v>0.12190525391216389</v>
-      </c>
-      <c r="H18" s="62">
-        <f t="shared" si="6"/>
-        <v>0.17268382879959024</v>
+        <v>9.5300198362808369E-2</v>
       </c>
       <c r="I18" s="63">
         <v>25</v>
       </c>
       <c r="J18" s="64">
         <f t="shared" si="1"/>
-        <v>21284917.245833926</v>
+        <v>12721699.271188699</v>
       </c>
       <c r="K18" s="54"/>
       <c r="L18" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="65">
+        <f t="shared" si="6"/>
+        <v>6.3987690073472647</v>
+      </c>
+      <c r="N18" s="30">
         <f t="shared" si="2"/>
-        <v>14.203600013791432</v>
-      </c>
-      <c r="N18" s="30">
+        <v>8.5337339104619563</v>
+      </c>
+      <c r="O18" s="66">
         <f t="shared" si="3"/>
-        <v>19.828368786672485</v>
-      </c>
-      <c r="O18" s="66">
-        <f t="shared" si="4"/>
-        <v>116.51343611511213</v>
+        <v>84.213877797108509</v>
       </c>
       <c r="P18" s="67">
-        <f t="shared" si="4"/>
-        <v>114.82469970992173</v>
+        <f t="shared" si="3"/>
+        <v>89.545814773375241</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="60">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!B19,RawScenario!$D$24:$D$30)</f>
-        <v>1004470.18451645</v>
-      </c>
-      <c r="D19" s="61">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B19,RawScenario!$B$24:$B$30)</f>
-        <v>234726.58027650099</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B19,RawScenario!$D$23:$D$30)</f>
+        <v>2002291.2315626901</v>
+      </c>
+      <c r="D19" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B19,RawScenario!$B$23:$B$30)</f>
+        <v>449012.09143626102</v>
       </c>
       <c r="E19" s="61">
-        <f>SUMIF(RawScenario!$B$42:$H$42,'Scenario Metrics'!$B19,RawScenario!$B$43:$H$43)</f>
-        <v>770173</v>
+        <f>RawScenario!H43</f>
+        <v>1327387</v>
       </c>
       <c r="F19" s="61">
-        <f>SUMIF(RawScenario!$B$62:$H$62,'Scenario Metrics'!$B19,RawScenario!$B$63:$H$63)</f>
-        <v>176877</v>
+        <f>RawScenario!H63</f>
+        <v>275047</v>
       </c>
       <c r="G19" s="62">
+        <f t="shared" si="4"/>
+        <v>0.27818750910342643</v>
+      </c>
+      <c r="H19" s="62">
         <f t="shared" si="5"/>
-        <v>0.21414281897123874</v>
-      </c>
-      <c r="H19" s="62">
-        <f t="shared" si="6"/>
-        <v>0.28488893685080285</v>
+        <v>0.30737518509205708</v>
       </c>
       <c r="I19" s="63">
         <v>25</v>
       </c>
       <c r="J19" s="64">
         <f t="shared" si="1"/>
-        <v>25111754.61291125</v>
+        <v>50057280.789067253</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="65">
+        <f t="shared" si="6"/>
+        <v>25.177845355185344</v>
+      </c>
+      <c r="N19" s="30">
         <f t="shared" si="2"/>
-        <v>16.757280004745397</v>
-      </c>
-      <c r="N19" s="30">
+        <v>30.107256151957827</v>
+      </c>
+      <c r="O19" s="66">
         <f t="shared" si="3"/>
-        <v>22.683900983936972</v>
-      </c>
-      <c r="O19" s="66">
-        <f t="shared" si="4"/>
-        <v>78.252822509990608</v>
+        <v>90.506742866821355</v>
       </c>
       <c r="P19" s="67">
-        <f t="shared" si="4"/>
-        <v>79.62366399582794</v>
+        <f t="shared" si="3"/>
+        <v>97.949534029368294</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="69">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!B20,RawScenario!$D$24:$D$30)</f>
-        <v>234367.838308159</v>
-      </c>
-      <c r="D20" s="70">
-        <f>SUMIF(RawScenario!$A$24:$A$30,'Scenario Metrics'!$B20,RawScenario!$B$24:$B$30)</f>
-        <v>68254.602092589397</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B20,RawScenario!$D$23:$D$30)</f>
+        <v>201930.05562972499</v>
+      </c>
+      <c r="D20" s="49">
+        <f>SUMIF(RawScenario!$A$23:$A$30,'Scenario Metrics'!$B20,RawScenario!$B$23:$B$30)</f>
+        <v>46679.723674947898</v>
       </c>
       <c r="E20" s="70">
-        <f>SUMIF(RawScenario!$B$42:$H$42,'Scenario Metrics'!$B20,RawScenario!$B$43:$H$43)</f>
-        <v>214282</v>
+        <f>RawScenario!B43</f>
+        <v>192864</v>
       </c>
       <c r="F20" s="70">
-        <f>SUMIF(RawScenario!$B$62:$H$62,'Scenario Metrics'!$B20,RawScenario!$B$63:$H$63)</f>
-        <v>57838</v>
+        <f>RawScenario!B63</f>
+        <v>43085</v>
       </c>
       <c r="G20" s="71">
+        <f t="shared" si="4"/>
+        <v>4.04195278059249E-2</v>
+      </c>
+      <c r="H20" s="71">
         <f t="shared" si="5"/>
-        <v>5.9580057382945105E-2</v>
-      </c>
-      <c r="H20" s="71">
-        <f t="shared" si="6"/>
-        <v>9.3157427645068236E-2</v>
+        <v>4.8149079428938618E-2</v>
       </c>
       <c r="I20" s="72">
         <v>25</v>
       </c>
       <c r="J20" s="73">
         <f t="shared" si="1"/>
-        <v>5859195.957703975</v>
+        <v>5048251.3907431243</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="75">
+        <f t="shared" si="6"/>
+        <v>2.5391729400129517</v>
+      </c>
+      <c r="N20" s="76">
         <f t="shared" si="2"/>
-        <v>3.9098895628518253</v>
-      </c>
-      <c r="N20" s="76">
+        <v>3.1299789573345334</v>
+      </c>
+      <c r="O20" s="77">
         <f t="shared" si="3"/>
-        <v>6.5961027240395449</v>
-      </c>
-      <c r="O20" s="77">
-        <f t="shared" si="4"/>
-        <v>65.624132211242852</v>
+        <v>62.820450357679505</v>
       </c>
       <c r="P20" s="78">
-        <f t="shared" si="4"/>
-        <v>70.805977481160554</v>
+        <f t="shared" si="3"/>
+        <v>65.005997922638372</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -9315,16 +9671,16 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="83" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="84" t="s">
         <v>1</v>
@@ -9340,19 +9696,19 @@
       </c>
       <c r="G23" s="28"/>
       <c r="L23" s="83" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O23" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="46" t="s">
         <v>70</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
@@ -9361,18 +9717,18 @@
       </c>
       <c r="C24" s="85">
         <f>SUM(RawScenario!C25:C27)</f>
-        <v>96439557.011630386</v>
+        <v>15102923.835773829</v>
       </c>
       <c r="D24" s="86">
         <f>SUM(RawScenario!E25:E27)</f>
-        <v>8074745.6284076599</v>
+        <v>2093738.2731523539</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" s="53">
         <f>C24</f>
-        <v>96439557.011630386</v>
+        <v>15102923.835773829</v>
       </c>
       <c r="G24" s="28"/>
       <c r="J24" s="87"/>
@@ -9381,19 +9737,19 @@
       </c>
       <c r="M24" s="88">
         <f>C24/$C$7</f>
-        <v>26.814545042228204</v>
+        <v>3.1651995703232654</v>
       </c>
       <c r="N24" s="89">
         <f>D24/$C$8</f>
-        <v>13.005680203857631</v>
+        <v>2.3398298808731921</v>
       </c>
       <c r="O24" s="90">
         <f>C24/E15</f>
-        <v>66.014023603086045</v>
+        <v>6.3243962358173889</v>
       </c>
       <c r="P24" s="91">
         <f>D24/F15</f>
-        <v>50.734467402675719</v>
+        <v>5.4744696059728701</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -9402,18 +9758,18 @@
       </c>
       <c r="C25" s="60">
         <f>F25/E25</f>
-        <v>2690277.8287267811</v>
+        <v>3538326.9788819333</v>
       </c>
       <c r="D25" s="61">
         <f>RawScenario!C84/'Scenario Metrics'!E25</f>
-        <v>395232.54936502047</v>
+        <v>575535.99841265718</v>
       </c>
       <c r="E25" s="63">
         <v>21</v>
       </c>
       <c r="F25" s="92">
         <f>RawScenario!C83</f>
-        <v>56495834.403262399</v>
+        <v>74304866.556520596</v>
       </c>
       <c r="G25" s="28"/>
       <c r="L25" s="55" t="s">
@@ -9421,49 +9777,49 @@
       </c>
       <c r="M25" s="93">
         <f>C25/C7</f>
-        <v>0.7480185335754127</v>
+        <v>0.74154588575043845</v>
       </c>
       <c r="N25" s="94">
         <f>D25/C8</f>
-        <v>0.63658576749624385</v>
+        <v>0.64318274345559989</v>
       </c>
       <c r="O25" s="26"/>
       <c r="P25" s="95"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="96">
         <f>RawScenario!C29</f>
-        <v>1092836.87200005</v>
+        <v>765214.92899995099</v>
       </c>
       <c r="D26" s="80">
         <f>RawScenario!E29</f>
-        <v>185557.83799999399</v>
+        <v>196740.23300000399</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="64">
         <f>C26</f>
-        <v>1092836.87200005</v>
+        <v>765214.92899995099</v>
       </c>
       <c r="G26" s="28"/>
       <c r="L26" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" s="97">
         <f>C26/$C$7</f>
-        <v>0.30385792340915807</v>
+        <v>0.1603701369888749</v>
       </c>
       <c r="N26" s="41">
         <f>D26/$C$8</f>
-        <v>0.29887082657525732</v>
+        <v>0.21986447964686279</v>
       </c>
       <c r="O26" s="98">
         <f>C26/E18</f>
-        <v>2.4925744679396358</v>
+        <v>2.1106233250769568</v>
       </c>
       <c r="P26" s="95"/>
     </row>
@@ -9473,18 +9829,18 @@
       </c>
       <c r="C27" s="99">
         <f>RawScenario!C85</f>
-        <v>2944293.1610001898</v>
+        <v>2898230.2563038701</v>
       </c>
       <c r="D27" s="100">
         <f>RawScenario!C86</f>
-        <v>231286.259899995</v>
+        <v>338701.39160453703</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="73">
         <f>C27</f>
-        <v>2944293.1610001898</v>
+        <v>2898230.2563038701</v>
       </c>
       <c r="G27" s="28"/>
       <c r="L27" s="74" t="s">
@@ -9492,24 +9848,24 @@
       </c>
       <c r="M27" s="101">
         <f>C27/$C$7</f>
-        <v>0.81864624879646508</v>
+        <v>0.60739743255686462</v>
       </c>
       <c r="N27" s="102">
         <f>D27/$C$8</f>
-        <v>0.37252382554604641</v>
+        <v>0.37851131964857598</v>
       </c>
       <c r="O27" s="103">
         <f>C27/E15</f>
-        <v>2.0154036813050835</v>
+        <v>1.2136429159553601</v>
       </c>
       <c r="P27" s="104">
         <f>D27/F15</f>
-        <v>1.4531956489503761</v>
+        <v>0.88559802226284667</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
@@ -9523,10 +9879,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>74</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -9541,15 +9897,15 @@
     </row>
     <row r="31" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B31" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="105">
         <f>O19</f>
-        <v>78.252822509990608</v>
+        <v>90.506742866821355</v>
       </c>
       <c r="D31" s="66">
         <f>P19</f>
-        <v>79.62366399582794</v>
+        <v>97.949534029368294</v>
       </c>
       <c r="E31" s="79"/>
       <c r="F31" s="106"/>
@@ -9570,19 +9926,19 @@
       </c>
       <c r="C32" s="61">
         <f>E19</f>
-        <v>770173</v>
+        <v>1327387</v>
       </c>
       <c r="D32" s="61">
         <f>F19</f>
-        <v>176877</v>
+        <v>275047</v>
       </c>
       <c r="E32" s="107">
         <f>G19</f>
-        <v>0.21414281897123874</v>
+        <v>0.27818750910342643</v>
       </c>
       <c r="F32" s="108">
         <f>H19</f>
-        <v>0.28488893685080285</v>
+        <v>0.30737518509205708</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -9601,11 +9957,11 @@
       </c>
       <c r="C33" s="105">
         <f>O20</f>
-        <v>65.624132211242852</v>
+        <v>62.820450357679505</v>
       </c>
       <c r="D33" s="66">
         <f>P20</f>
-        <v>70.805977481160554</v>
+        <v>65.005997922638372</v>
       </c>
       <c r="E33" s="79"/>
       <c r="F33" s="106"/>
@@ -9626,19 +9982,19 @@
       </c>
       <c r="C34" s="70">
         <f>E20</f>
-        <v>214282</v>
+        <v>192864</v>
       </c>
       <c r="D34" s="70">
         <f>F20</f>
-        <v>57838</v>
+        <v>43085</v>
       </c>
       <c r="E34" s="109">
         <f>G20</f>
-        <v>5.9580057382945105E-2</v>
+        <v>4.04195278059249E-2</v>
       </c>
       <c r="F34" s="110">
         <f>H20</f>
-        <v>9.3157427645068236E-2</v>
+        <v>4.8149079428938618E-2</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -9653,7 +10009,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -9682,15 +10038,15 @@
         <v>3</v>
       </c>
       <c r="C38" s="66">
-        <f>SUM(RawScenario!H143:H146)</f>
-        <v>30.784016539302183</v>
+        <f>SUM(RawScenario!H163:H166)</f>
+        <v>56.844887153160776</v>
       </c>
       <c r="D38" s="63">
         <v>75500</v>
       </c>
       <c r="E38" s="64">
         <f>D38*C38</f>
-        <v>2324193.2487173146</v>
+        <v>4291788.9800636386</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -9709,15 +10065,15 @@
         <v>4</v>
       </c>
       <c r="C39" s="66">
-        <f>SUM(RawScenario!G143:G146)</f>
-        <v>58.8278608913037</v>
+        <f>SUM(RawScenario!G163:G166)</f>
+        <v>107.73371713545689</v>
       </c>
       <c r="D39" s="63">
         <v>2600</v>
       </c>
       <c r="E39" s="64">
         <f>D39*C39</f>
-        <v>152952.43831738963</v>
+        <v>280107.6645521879</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -9736,8 +10092,8 @@
         <v>5</v>
       </c>
       <c r="C40" s="111">
-        <f>SUM(RawScenario!I143:I146)</f>
-        <v>0.56949753418232163</v>
+        <f>SUM(RawScenario!I163:I166)</f>
+        <v>1.0518270586399558</v>
       </c>
       <c r="D40" s="100">
         <f>2500000</f>
@@ -9745,7 +10101,7 @@
       </c>
       <c r="E40" s="73">
         <f>D40*C40</f>
-        <v>1423743.8354558041</v>
+        <v>2629567.6465998897</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -9778,12 +10134,12 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>1</v>
@@ -9807,18 +10163,18 @@
         <v>6</v>
       </c>
       <c r="C44" s="66">
-        <f>SUM(RawScenario!B103:E103)</f>
-        <v>24769.803737867707</v>
+        <f>SUM(RawScenario!B123:E123)</f>
+        <v>44960.911553405575</v>
       </c>
       <c r="D44" s="114">
         <v>55.34</v>
       </c>
       <c r="E44" s="64">
         <f>D44*C44</f>
-        <v>1370760.9388535989</v>
+        <v>2488136.8453654647</v>
       </c>
       <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="H44" s="146"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
       <c r="K44" s="54"/>
@@ -9830,18 +10186,18 @@
         <v>7</v>
       </c>
       <c r="C45" s="66">
-        <f>SUM(RawScenario!B104:E104)</f>
-        <v>578.52460806313502</v>
+        <f>SUM(RawScenario!B124:E124)</f>
+        <v>1183.186850145195</v>
       </c>
       <c r="D45" s="114">
         <v>380</v>
       </c>
       <c r="E45" s="64">
         <f>D45*C45</f>
-        <v>219839.35106399131</v>
+        <v>449611.00305517408</v>
       </c>
       <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
+      <c r="H45" s="146"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
       <c r="K45" s="54"/>
@@ -9853,18 +10209,18 @@
         <v>8</v>
       </c>
       <c r="C46" s="66">
-        <f>SUM(RawScenario!B105:E105)</f>
-        <v>19.380780880951857</v>
+        <f>SUM(RawScenario!B125:E125)</f>
+        <v>37.990874535490946</v>
       </c>
       <c r="D46" s="114">
         <v>9800</v>
       </c>
       <c r="E46" s="64">
         <f>D46*C46</f>
-        <v>189931.65263332819</v>
+        <v>372310.57044781127</v>
       </c>
       <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
+      <c r="H46" s="146"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="54"/>
@@ -9876,18 +10232,18 @@
         <v>9</v>
       </c>
       <c r="C47" s="66">
-        <f>SUM(RawScenario!B106:E106)</f>
-        <v>0.64668360077367548</v>
+        <f>SUM(RawScenario!B126:E126)</f>
+        <v>1.1790080705422505</v>
       </c>
       <c r="D47" s="114">
         <v>7800</v>
       </c>
       <c r="E47" s="64">
         <f>D47*C47</f>
-        <v>5044.1320860346686</v>
+        <v>9196.2629502295549</v>
       </c>
       <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
+      <c r="H47" s="146"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="54"/>
@@ -9898,19 +10254,19 @@
       <c r="B48" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="129">
-        <f>SUM(RawScenario!B107:E107)</f>
-        <v>23.317200302431697</v>
+      <c r="C48" s="77">
+        <f>SUM(RawScenario!B127:E127)</f>
+        <v>48.343963544294397</v>
       </c>
       <c r="D48" s="115">
         <v>6500</v>
       </c>
       <c r="E48" s="73">
         <f>D48*C48</f>
-        <v>151561.80196580602</v>
+        <v>314235.7630379136</v>
       </c>
       <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
+      <c r="H48" s="146"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
       <c r="K48" s="54"/>
@@ -9933,7 +10289,7 @@
     </row>
     <row r="50" spans="2:16" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -9969,7 +10325,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52" s="79"/>
@@ -10011,8 +10367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10037,7 +10393,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -10054,24 +10410,24 @@
     </row>
     <row r="2" spans="1:20" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C3" s="12">
         <f>'Scenario Metrics'!C3-'Baseline Metrics'!C3</f>
-        <v>89246886.506284267</v>
+        <v>66430856.371682286</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="F3" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="14"/>
@@ -10079,29 +10435,29 @@
       <c r="J3" s="10"/>
       <c r="K3" s="16"/>
       <c r="L3" s="120" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M3" s="121" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N3" s="122" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="21">
         <f>'Scenario Metrics'!C4-'Baseline Metrics'!C4</f>
-        <v>24.81465834411479</v>
+        <v>1.4181518471402725</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="14"/>
@@ -10109,22 +10465,22 @@
       <c r="J4" s="10"/>
       <c r="K4" s="16"/>
       <c r="L4" s="123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="24">
         <f>SUM(J15:J20)</f>
-        <v>11690129.26920598</v>
+        <v>45890519.701592058</v>
       </c>
       <c r="N4" s="25">
-        <f>M4/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>0.81259575311194876</v>
+        <f>'Scenario Metrics'!N4-'Baseline Metrics'!N4</f>
+        <v>1.900102815382489</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
@@ -10136,29 +10492,29 @@
       <c r="J5" s="10"/>
       <c r="K5" s="29"/>
       <c r="L5" s="123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M5" s="24">
         <f>F24</f>
-        <v>87848790.529563993</v>
+        <v>2507091.0721640885</v>
       </c>
       <c r="N5" s="25">
-        <f>M5/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>6.1064811565760859</v>
+        <f>'Scenario Metrics'!N5-'Baseline Metrics'!N5</f>
+        <v>-0.19780279112785903</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="127">
         <f>'Scenario Metrics'!C6-'Baseline Metrics'!C6</f>
-        <v>7.8009192298747223</v>
+        <v>4.5602467569179765</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="10"/>
@@ -10168,15 +10524,15 @@
       <c r="J6" s="10"/>
       <c r="K6" s="29"/>
       <c r="L6" s="123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M6" s="24">
         <f>F25</f>
-        <v>-1379531.1866469011</v>
+        <v>15559728.153245993</v>
       </c>
       <c r="N6" s="25">
-        <f>M6/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>-9.5892967283748423E-2</v>
+        <f>'Scenario Metrics'!N6-'Baseline Metrics'!N6</f>
+        <v>-0.11209198851081581</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -10187,7 +10543,7 @@
       </c>
       <c r="C7" s="127">
         <f>'Scenario Metrics'!C7-'Baseline Metrics'!C7</f>
-        <v>0</v>
+        <v>1026142</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="14"/>
@@ -10198,15 +10554,15 @@
       <c r="J7" s="10"/>
       <c r="K7" s="29"/>
       <c r="L7" s="123" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M7" s="24">
         <f>F26</f>
-        <v>749147.77500004205</v>
+        <v>261267.07899990701</v>
       </c>
       <c r="N7" s="25">
-        <f>M7/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>5.2074214612996134E-2</v>
+        <f>'Scenario Metrics'!N7-'Baseline Metrics'!N7</f>
+        <v>2.5819461268989263E-2</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -10214,11 +10570,11 @@
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="128">
         <f>'Scenario Metrics'!C8-'Baseline Metrics'!C8</f>
-        <v>180926</v>
+        <v>454562</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="14"/>
@@ -10229,15 +10585,15 @@
       <c r="J8" s="14"/>
       <c r="K8" s="29"/>
       <c r="L8" s="123" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" s="24">
         <f>F27</f>
-        <v>-7207653.6623076089</v>
+        <v>754110.31650657998</v>
       </c>
       <c r="N8" s="25">
-        <f>M8/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>-0.50101317282445768</v>
+        <f>'Scenario Metrics'!N8-'Baseline Metrics'!N8</f>
+        <v>3.4931875408082846E-2</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -10255,15 +10611,15 @@
       <c r="J9" s="14"/>
       <c r="K9" s="29"/>
       <c r="L9" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="142">
+        <v>95</v>
+      </c>
+      <c r="M9" s="141">
         <f>HeatResults!T8</f>
         <v>6936746.666666667</v>
       </c>
       <c r="N9" s="25">
-        <f>M9/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>0.48218208301555099</v>
+        <f>'Scenario Metrics'!N9-'Baseline Metrics'!N9</f>
+        <v>0</v>
       </c>
       <c r="P9" s="10"/>
     </row>
@@ -10280,15 +10636,15 @@
       <c r="J10" s="14"/>
       <c r="K10" s="29"/>
       <c r="L10" s="123" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M10" s="24">
         <f>SUM(E38:E40)</f>
-        <v>-1470330.9337950645</v>
+        <v>957182.85994730284</v>
       </c>
       <c r="N10" s="25">
-        <f>M10/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>-0.10220457318793599</v>
+        <f>'Scenario Metrics'!N10-'Baseline Metrics'!N10</f>
+        <v>-0.15793207808666665</v>
       </c>
       <c r="P10" s="10"/>
     </row>
@@ -10305,15 +10661,15 @@
       <c r="J11" s="14"/>
       <c r="K11" s="29"/>
       <c r="L11" s="125" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M11" s="39">
         <f>SUM(E44:E48)</f>
-        <v>-983665.28473613702</v>
-      </c>
-      <c r="N11" s="40">
-        <f>M11/SUM('Baseline Metrics'!$C$7+'Scenario Metrics'!$C$7)/2</f>
-        <v>-6.8375824976188007E-2</v>
+        <v>500957.18922636157</v>
+      </c>
+      <c r="N11" s="25">
+        <f>'Scenario Metrics'!N11-'Baseline Metrics'!N11</f>
+        <v>-7.4875447193957112E-2</v>
       </c>
       <c r="P11" s="10"/>
     </row>
@@ -10336,7 +10692,7 @@
     </row>
     <row r="13" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
@@ -10348,31 +10704,31 @@
       <c r="J13" s="14"/>
       <c r="K13" s="29"/>
       <c r="L13" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I14" s="45" t="s">
         <v>17</v>
@@ -10382,362 +10738,362 @@
       </c>
       <c r="K14" s="47"/>
       <c r="L14" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M14" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="46" t="s">
         <v>119</v>
-      </c>
-      <c r="N14" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="P14" s="46" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="49">
         <f>'Scenario Metrics'!C15-'Baseline Metrics'!C15</f>
-        <v>-1017173.23534877</v>
+        <v>640963.50274680997</v>
       </c>
       <c r="D15" s="50">
         <f>'Scenario Metrics'!D15-'Baseline Metrics'!D15</f>
-        <v>-61079.555690624809</v>
+        <v>238434.53984127499</v>
       </c>
       <c r="E15" s="50">
         <f>'Scenario Metrics'!E15-'Baseline Metrics'!E15</f>
-        <v>-530622</v>
+        <v>542409</v>
       </c>
       <c r="F15" s="50">
         <f>'Scenario Metrics'!F15-'Baseline Metrics'!F15</f>
-        <v>-9990</v>
+        <v>220499</v>
       </c>
       <c r="G15" s="51">
         <f>'Scenario Metrics'!G15-'Baseline Metrics'!G15</f>
-        <v>-0.14753684027894598</v>
+        <v>7.7030250633949859E-3</v>
       </c>
       <c r="H15" s="51">
         <f>'Scenario Metrics'!H15-'Baseline Metrics'!H15</f>
-        <v>-0.12813203174661159</v>
+        <v>5.9545656594132024E-2</v>
       </c>
       <c r="I15" s="52">
         <v>25</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" ref="J15:J20" si="0">C15*I15</f>
-        <v>-25429330.883719251</v>
+        <v>16024087.568670249</v>
       </c>
       <c r="K15" s="54"/>
       <c r="L15" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="56">
         <f>'Scenario Metrics'!M15-'Baseline Metrics'!M15</f>
-        <v>-16.969201257354975</v>
+        <v>1.2298196342979537</v>
       </c>
       <c r="N15" s="57">
         <f>'Scenario Metrics'!N15-'Baseline Metrics'!N15</f>
-        <v>-11.456438533554298</v>
+        <v>5.8197372216163323</v>
       </c>
       <c r="O15" s="58">
         <f>'Scenario Metrics'!O15-'Baseline Metrics'!O15</f>
-        <v>-19.685799470612757</v>
+        <v>1.4653198490197923</v>
       </c>
       <c r="P15" s="59">
         <f>'Scenario Metrics'!P15-'Baseline Metrics'!P15</f>
-        <v>-19.914826617702282</v>
+        <v>6.0358934869590755</v>
       </c>
       <c r="R15" s="28">
         <v>60</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="60">
         <f>'Scenario Metrics'!C16-'Baseline Metrics'!C16</f>
-        <v>-111376.93164344702</v>
+        <v>237315.83086748002</v>
       </c>
       <c r="D16" s="61">
         <f>'Scenario Metrics'!D16-'Baseline Metrics'!D16</f>
-        <v>-5889.4552765422995</v>
+        <v>97371.851386967013</v>
       </c>
       <c r="E16" s="61">
         <f>'Scenario Metrics'!E16-'Baseline Metrics'!E16</f>
-        <v>-119409</v>
+        <v>315262</v>
       </c>
       <c r="F16" s="61">
         <f>'Scenario Metrics'!F16-'Baseline Metrics'!F16</f>
-        <v>21328</v>
+        <v>134733</v>
       </c>
       <c r="G16" s="62">
         <f>'Scenario Metrics'!G16-'Baseline Metrics'!G16</f>
-        <v>-3.3201085821674692E-2</v>
+        <v>-1.5017516025428446E-2</v>
       </c>
       <c r="H16" s="62">
         <f>'Scenario Metrics'!H16-'Baseline Metrics'!H16</f>
-        <v>-6.3522775692457456E-2</v>
+        <v>-2.1972723307550845E-2</v>
       </c>
       <c r="I16" s="63">
         <v>25</v>
       </c>
       <c r="J16" s="64">
         <f t="shared" si="0"/>
-        <v>-2784423.2910861755</v>
+        <v>5932895.771687001</v>
       </c>
       <c r="K16" s="54"/>
       <c r="L16" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="65">
         <f>'Scenario Metrics'!M16-'Baseline Metrics'!M16</f>
-        <v>-1.8580685204878424</v>
+        <v>-0.23842036060148253</v>
       </c>
       <c r="N16" s="30">
         <f>'Scenario Metrics'!N16-'Baseline Metrics'!N16</f>
-        <v>-3.7345117283417304</v>
+        <v>-5.7840883816625777E-2</v>
       </c>
       <c r="O16" s="66">
         <f>'Scenario Metrics'!O16-'Baseline Metrics'!O16</f>
-        <v>-2.1124205134578595</v>
+        <v>0.98991316023715115</v>
       </c>
       <c r="P16" s="67">
         <f>'Scenario Metrics'!P16-'Baseline Metrics'!P16</f>
-        <v>-6.1691685568750394</v>
+        <v>2.4583436637336078</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="60">
         <f>'Scenario Metrics'!C17-'Baseline Metrics'!C17</f>
-        <v>281158.69342795794</v>
+        <v>87334.179481609026</v>
       </c>
       <c r="D17" s="61">
         <f>'Scenario Metrics'!D17-'Baseline Metrics'!D17</f>
-        <v>44037.077190700191</v>
+        <v>37274.305289260505</v>
       </c>
       <c r="E17" s="61">
         <f>'Scenario Metrics'!E17-'Baseline Metrics'!E17</f>
-        <v>322371</v>
+        <v>128418</v>
       </c>
       <c r="F17" s="61">
         <f>'Scenario Metrics'!F17-'Baseline Metrics'!F17</f>
-        <v>77993</v>
+        <v>57859</v>
       </c>
       <c r="G17" s="62">
         <f>'Scenario Metrics'!G17-'Baseline Metrics'!G17</f>
-        <v>8.963367281711665E-2</v>
+        <v>-2.7199405908880536E-2</v>
       </c>
       <c r="H17" s="62">
         <f>'Scenario Metrics'!H17-'Baseline Metrics'!H17</f>
-        <v>6.8298275204830089E-2</v>
+        <v>-4.5272990645165212E-2</v>
       </c>
       <c r="I17" s="63">
         <v>25</v>
       </c>
       <c r="J17" s="64">
         <f t="shared" si="0"/>
-        <v>7028967.3356989482</v>
+        <v>2183354.4870402254</v>
       </c>
       <c r="K17" s="54"/>
       <c r="L17" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="65">
         <f>'Scenario Metrics'!M17-'Baseline Metrics'!M17</f>
-        <v>4.6904876064676273</v>
+        <v>-1.0215125875793021</v>
       </c>
       <c r="N17" s="30">
         <f>'Scenario Metrics'!N17-'Baseline Metrics'!N17</f>
-        <v>2.2616304232203204</v>
+        <v>-1.548657102898825</v>
       </c>
       <c r="O17" s="66">
         <f>'Scenario Metrics'!O17-'Baseline Metrics'!O17</f>
-        <v>3.4992882023565102</v>
+        <v>0.19579505471605785</v>
       </c>
       <c r="P17" s="67">
         <f>'Scenario Metrics'!P17-'Baseline Metrics'!P17</f>
-        <v>-0.43133656574202206</v>
+        <v>0.69187617350759467</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="60">
         <f>'Scenario Metrics'!C18-'Baseline Metrics'!C18</f>
-        <v>584541.56783337297</v>
+        <v>200717.13550868497</v>
       </c>
       <c r="D18" s="61">
         <f>'Scenario Metrics'!D18-'Baseline Metrics'!D18</f>
-        <v>149275.89399999718</v>
+        <v>75966.430636733305</v>
       </c>
       <c r="E18" s="61">
         <f>'Scenario Metrics'!E18-'Baseline Metrics'!E18</f>
-        <v>234912</v>
+        <v>0</v>
       </c>
       <c r="F18" s="61">
         <f>'Scenario Metrics'!F18-'Baseline Metrics'!F18</f>
-        <v>64809</v>
+        <v>-137487</v>
       </c>
       <c r="G18" s="62">
         <f>'Scenario Metrics'!G18-'Baseline Metrics'!G18</f>
-        <v>6.5316127532608431E-2</v>
+        <v>-2.081711382805726E-2</v>
       </c>
       <c r="H18" s="62">
         <f>'Scenario Metrics'!H18-'Baseline Metrics'!H18</f>
-        <v>7.6297300728525516E-2</v>
+        <v>-0.41067918214384336</v>
       </c>
       <c r="I18" s="63">
         <v>25</v>
       </c>
       <c r="J18" s="64">
         <f t="shared" si="0"/>
-        <v>14613539.195834324</v>
+        <v>5017928.3877171241</v>
       </c>
       <c r="K18" s="54"/>
       <c r="L18" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="65">
         <f>'Scenario Metrics'!M18-'Baseline Metrics'!M18</f>
-        <v>9.7517346732518071</v>
+        <v>1.4623173742878981</v>
       </c>
       <c r="N18" s="30">
         <f>'Scenario Metrics'!N18-'Baseline Metrics'!N18</f>
-        <v>12.204216032982735</v>
+        <v>1.5419753292840657</v>
       </c>
       <c r="O18" s="66">
         <f>'Scenario Metrics'!O18-'Baseline Metrics'!O18</f>
-        <v>37.843457881484611</v>
+        <v>33.21719834982126</v>
       </c>
       <c r="P18" s="67">
         <f>'Scenario Metrics'!P18-'Baseline Metrics'!P18</f>
-        <v>35.724923981216705</v>
+        <v>75.727546973258882</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="60">
         <f>'Scenario Metrics'!C19-'Baseline Metrics'!C19</f>
-        <v>527123.268950372</v>
+        <v>605641.95815657009</v>
       </c>
       <c r="D19" s="61">
         <f>'Scenario Metrics'!D19-'Baseline Metrics'!D19</f>
-        <v>145795.78344027969</v>
+        <v>238443.92103420803</v>
       </c>
       <c r="E19" s="61">
         <f>'Scenario Metrics'!E19-'Baseline Metrics'!E19</f>
-        <v>293702</v>
+        <v>405707</v>
       </c>
       <c r="F19" s="61">
         <f>'Scenario Metrics'!F19-'Baseline Metrics'!F19</f>
-        <v>92711</v>
+        <v>149207</v>
       </c>
       <c r="G19" s="62">
         <f>'Scenario Metrics'!G19-'Baseline Metrics'!G19</f>
-        <v>8.1662398211169135E-2</v>
+        <v>3.2105167850272232E-2</v>
       </c>
       <c r="H19" s="62">
         <f>'Scenario Metrics'!H19-'Baseline Metrics'!H19</f>
-        <v>9.3575180562970733E-2</v>
+        <v>2.1546032971619999E-2</v>
       </c>
       <c r="I19" s="63">
         <v>25</v>
       </c>
       <c r="J19" s="64">
         <f t="shared" si="0"/>
-        <v>13178081.723759301</v>
+        <v>15141048.953914253</v>
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="65">
         <f>'Scenario Metrics'!M19-'Baseline Metrics'!M19</f>
-        <v>8.7938421179423685</v>
+        <v>2.8040894024059853</v>
       </c>
       <c r="N19" s="30">
         <f>'Scenario Metrics'!N19-'Baseline Metrics'!N19</f>
-        <v>10.555237538549841</v>
+        <v>1.4105675269242006</v>
       </c>
       <c r="O19" s="66">
         <f>'Scenario Metrics'!O19-'Baseline Metrics'!O19</f>
-        <v>18.142522126620626</v>
+        <v>-0.41305186059727816</v>
       </c>
       <c r="P19" s="67">
         <f>'Scenario Metrics'!P19-'Baseline Metrics'!P19</f>
-        <v>16.226950237620613</v>
+        <v>-2.4485128883301996</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="69">
         <f>'Scenario Metrics'!C20-'Baseline Metrics'!C20</f>
-        <v>203331.80754875331</v>
+        <v>63648.181302527984</v>
       </c>
       <c r="D20" s="70">
         <f>'Scenario Metrics'!D20-'Baseline Metrics'!D20</f>
-        <v>61145.285187414935</v>
+        <v>26601.571858261199</v>
       </c>
       <c r="E20" s="70">
         <f>'Scenario Metrics'!E20-'Baseline Metrics'!E20</f>
-        <v>163527</v>
+        <v>57150</v>
       </c>
       <c r="F20" s="70">
         <f>'Scenario Metrics'!F20-'Baseline Metrics'!F20</f>
-        <v>47367</v>
+        <v>23213</v>
       </c>
       <c r="G20" s="71">
         <f>'Scenario Metrics'!G20-'Baseline Metrics'!G20</f>
-        <v>4.546787898031969E-2</v>
+        <v>4.1848054935924583E-3</v>
       </c>
       <c r="H20" s="71">
         <f>'Scenario Metrics'!H20-'Baseline Metrics'!H20</f>
-        <v>6.9356292482533596E-2</v>
+        <v>3.0124224761626656E-3</v>
       </c>
       <c r="I20" s="72">
         <v>25</v>
       </c>
       <c r="J20" s="73">
         <f t="shared" si="0"/>
-        <v>5083295.188718833</v>
+        <v>1591204.5325631995</v>
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M20" s="75">
         <f>'Scenario Metrics'!M20-'Baseline Metrics'!M20</f>
-        <v>3.3921246100557227</v>
+        <v>0.32395329410692764</v>
       </c>
       <c r="N20" s="76">
         <f>'Scenario Metrics'!N20-'Baseline Metrics'!N20</f>
-        <v>5.6265115909671559</v>
+        <v>0.39368472184074443</v>
       </c>
       <c r="O20" s="77">
         <f>'Scenario Metrics'!O20-'Baseline Metrics'!O20</f>
-        <v>28.934902666087851</v>
+        <v>1.6851772124489486</v>
       </c>
       <c r="P20" s="78">
         <f>'Scenario Metrics'!P20-'Baseline Metrics'!P20</f>
-        <v>30.068797239496185</v>
+        <v>4.3835588625939863</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -10757,16 +11113,16 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N22" s="81"/>
     </row>
     <row r="23" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="83" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="84" t="s">
         <v>1</v>
@@ -10782,19 +11138,19 @@
       </c>
       <c r="G23" s="28"/>
       <c r="L23" s="83" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O23" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="46" t="s">
         <v>70</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
@@ -10803,18 +11159,18 @@
       </c>
       <c r="C24" s="85">
         <f>'Scenario Metrics'!C24-'Baseline Metrics'!C24</f>
-        <v>87848790.529563993</v>
+        <v>2507091.0721640885</v>
       </c>
       <c r="D24" s="86">
         <f>'Scenario Metrics'!D24-'Baseline Metrics'!D24</f>
-        <v>7443320.724398586</v>
+        <v>1167008.5691800788</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" s="53">
         <f>C24</f>
-        <v>87848790.529563993</v>
+        <v>2507091.0721640885</v>
       </c>
       <c r="G24" s="28"/>
       <c r="J24" s="87"/>
@@ -10823,19 +11179,19 @@
       </c>
       <c r="M24" s="88">
         <f>'Scenario Metrics'!M24-'Baseline Metrics'!M24</f>
-        <v>24.425924626304344</v>
+        <v>-0.19780279112785903</v>
       </c>
       <c r="N24" s="89">
         <f>'Scenario Metrics'!N24-'Baseline Metrics'!N24</f>
-        <v>11.570418100399468</v>
+        <v>0.2348841916549862</v>
       </c>
       <c r="O24" s="90">
         <f>'Scenario Metrics'!O24-'Baseline Metrics'!O24</f>
-        <v>61.700343889547881</v>
+        <v>-0.50027192064152803</v>
       </c>
       <c r="P24" s="91">
         <f>'Scenario Metrics'!P24-'Baseline Metrics'!P24</f>
-        <v>47.001472410100774</v>
+        <v>-0.24763827500884705</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -10844,18 +11200,18 @@
       </c>
       <c r="C25" s="60">
         <f>'Scenario Metrics'!C25-'Baseline Metrics'!C25</f>
-        <v>-65691.961268899962</v>
+        <v>740939.43586885696</v>
       </c>
       <c r="D25" s="61">
         <f>'Scenario Metrics'!D25-'Baseline Metrics'!D25</f>
-        <v>127968.95174600574</v>
+        <v>319074.62714283483</v>
       </c>
       <c r="E25" s="63">
         <v>21</v>
       </c>
       <c r="F25" s="61">
         <f>'Scenario Metrics'!F25-'Baseline Metrics'!F25</f>
-        <v>-1379531.1866469011</v>
+        <v>15559728.153245993</v>
       </c>
       <c r="G25" s="28"/>
       <c r="L25" s="55" t="s">
@@ -10863,11 +11219,11 @@
       </c>
       <c r="M25" s="93">
         <f>'Scenario Metrics'!M25-'Baseline Metrics'!M25</f>
-        <v>-1.8265327101666284E-2</v>
+        <v>-5.3377137386102502E-3</v>
       </c>
       <c r="N25" s="94">
         <f>'Scenario Metrics'!N25-'Baseline Metrics'!N25</f>
-        <v>2.9081516617107228E-2</v>
+        <v>6.0664177803200325E-2</v>
       </c>
       <c r="O25" s="26">
         <f>'Scenario Metrics'!O25-'Baseline Metrics'!O25</f>
@@ -10880,38 +11236,38 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="96">
         <f>'Scenario Metrics'!C26-'Baseline Metrics'!C26</f>
-        <v>749147.77500004205</v>
+        <v>261267.07899990701</v>
       </c>
       <c r="D26" s="80">
         <f>'Scenario Metrics'!D26-'Baseline Metrics'!D26</f>
-        <v>134918.74199999339</v>
+        <v>111961.91400000699</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="64">
         <f>C26</f>
-        <v>749147.77500004205</v>
+        <v>261267.07899990701</v>
       </c>
       <c r="G26" s="28"/>
       <c r="L26" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" s="97">
         <f>'Scenario Metrics'!M26-'Baseline Metrics'!M26</f>
-        <v>0.20829685845198453</v>
+        <v>2.5819461268989263E-2</v>
       </c>
       <c r="N26" s="41">
         <f>'Scenario Metrics'!N26-'Baseline Metrics'!N26</f>
-        <v>0.18376549103857684</v>
+        <v>2.7301582015226672E-2</v>
       </c>
       <c r="O26" s="98">
         <f>'Scenario Metrics'!O26-'Baseline Metrics'!O26</f>
-        <v>0.8038920112389456</v>
+        <v>0.72062942072051883</v>
       </c>
       <c r="P26" s="95">
         <f>'Scenario Metrics'!P26-'Baseline Metrics'!P26</f>
@@ -10924,18 +11280,18 @@
       </c>
       <c r="C27" s="99">
         <f>'Scenario Metrics'!C27-'Baseline Metrics'!C27</f>
-        <v>-7207653.6623076089</v>
+        <v>754110.31650657998</v>
       </c>
       <c r="D27" s="100">
         <f>'Scenario Metrics'!D27-'Baseline Metrics'!D27</f>
-        <v>-437010.42330000602</v>
+        <v>212749.62848869603</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F27" s="73">
         <f>C27</f>
-        <v>-7207653.6623076089</v>
+        <v>754110.31650657998</v>
       </c>
       <c r="G27" s="28"/>
       <c r="L27" s="74" t="s">
@@ -10943,24 +11299,24 @@
       </c>
       <c r="M27" s="101">
         <f>'Scenario Metrics'!M27-'Baseline Metrics'!M27</f>
-        <v>-2.0040526912978311</v>
+        <v>3.4931875408082846E-2</v>
       </c>
       <c r="N27" s="102">
         <f>'Scenario Metrics'!N27-'Baseline Metrics'!N27</f>
-        <v>-1.1465497763560466</v>
+        <v>9.2428312182945227E-2</v>
       </c>
       <c r="O27" s="103">
         <f>'Scenario Metrics'!O27-'Baseline Metrics'!O27</f>
-        <v>-3.0821911789485821</v>
+        <v>5.1916863269213964E-2</v>
       </c>
       <c r="P27" s="104">
         <f>'Scenario Metrics'!P27-'Baseline Metrics'!P27</f>
-        <v>-2.4977859422099815</v>
+        <v>0.10790677824693495</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
@@ -10974,10 +11330,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>73</v>
-      </c>
-      <c r="F30" s="46" t="s">
-        <v>74</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
@@ -10992,15 +11348,15 @@
     </row>
     <row r="31" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B31" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="105">
         <f>'Scenario Metrics'!C31-'Baseline Metrics'!C31</f>
-        <v>18.142522126620626</v>
+        <v>-0.41305186059727816</v>
       </c>
       <c r="D31" s="66">
         <f>'Scenario Metrics'!D31-'Baseline Metrics'!D31</f>
-        <v>16.226950237620613</v>
+        <v>-2.4485128883301996</v>
       </c>
       <c r="E31" s="79">
         <f>'Scenario Metrics'!E31-'Baseline Metrics'!E31</f>
@@ -11027,19 +11383,19 @@
       </c>
       <c r="C32" s="61">
         <f>'Scenario Metrics'!C32-'Baseline Metrics'!C32</f>
-        <v>293702</v>
+        <v>405707</v>
       </c>
       <c r="D32" s="61">
         <f>'Scenario Metrics'!D32-'Baseline Metrics'!D32</f>
-        <v>92711</v>
+        <v>149207</v>
       </c>
       <c r="E32" s="107">
         <f>'Scenario Metrics'!E32-'Baseline Metrics'!E32</f>
-        <v>8.1662398211169135E-2</v>
+        <v>3.2105167850272232E-2</v>
       </c>
       <c r="F32" s="108">
         <f>'Scenario Metrics'!F32-'Baseline Metrics'!F32</f>
-        <v>9.3575180562970733E-2</v>
+        <v>2.1546032971619999E-2</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
@@ -11058,11 +11414,11 @@
       </c>
       <c r="C33" s="105">
         <f>'Scenario Metrics'!C33-'Baseline Metrics'!C33</f>
-        <v>28.934902666087851</v>
+        <v>1.6851772124489486</v>
       </c>
       <c r="D33" s="66">
         <f>'Scenario Metrics'!D33-'Baseline Metrics'!D33</f>
-        <v>30.068797239496185</v>
+        <v>4.3835588625939863</v>
       </c>
       <c r="E33" s="79">
         <f>'Scenario Metrics'!E33-'Baseline Metrics'!E33</f>
@@ -11089,19 +11445,19 @@
       </c>
       <c r="C34" s="70">
         <f>'Scenario Metrics'!C34-'Baseline Metrics'!C34</f>
-        <v>163527</v>
+        <v>57150</v>
       </c>
       <c r="D34" s="70">
         <f>'Scenario Metrics'!D34-'Baseline Metrics'!D34</f>
-        <v>47367</v>
+        <v>23213</v>
       </c>
       <c r="E34" s="109">
         <f>'Scenario Metrics'!E34-'Baseline Metrics'!E34</f>
-        <v>4.546787898031969E-2</v>
+        <v>4.1848054935924583E-3</v>
       </c>
       <c r="F34" s="110">
         <f>'Scenario Metrics'!F34-'Baseline Metrics'!F34</f>
-        <v>6.9356292482533596E-2</v>
+        <v>3.0124224761626656E-3</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -11116,7 +11472,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
@@ -11146,14 +11502,14 @@
       </c>
       <c r="C38" s="66">
         <f>'Scenario Metrics'!C38-'Baseline Metrics'!C38</f>
-        <v>-11.616642119176621</v>
+        <v>7.56173332192553</v>
       </c>
       <c r="D38" s="63">
         <v>75500</v>
       </c>
       <c r="E38" s="64">
         <f>D38*C38</f>
-        <v>-877056.47999783489</v>
+        <v>570910.86580537749</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -11173,14 +11529,14 @@
       </c>
       <c r="C39" s="66">
         <f>'Scenario Metrics'!C39-'Baseline Metrics'!C39</f>
-        <v>-21.352787063655953</v>
+        <v>13.942078776257276</v>
       </c>
       <c r="D39" s="63">
         <v>2600</v>
       </c>
       <c r="E39" s="64">
         <f>D39*C39</f>
-        <v>-55517.246365505474</v>
+        <v>36249.404818268915</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -11200,7 +11556,7 @@
       </c>
       <c r="C40" s="111">
         <f>'Scenario Metrics'!C40-'Baseline Metrics'!C40</f>
-        <v>-0.21510288297268965</v>
+        <v>0.14000903572946255</v>
       </c>
       <c r="D40" s="100">
         <f>2500000</f>
@@ -11208,7 +11564,7 @@
       </c>
       <c r="E40" s="73">
         <f>D40*C40</f>
-        <v>-537757.20743172406</v>
+        <v>350022.5893236564</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -11241,12 +11597,12 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>1</v>
@@ -11271,14 +11627,14 @@
       </c>
       <c r="C44" s="66">
         <f>'Scenario Metrics'!C44-'Baseline Metrics'!C44</f>
-        <v>-10586.545670915122</v>
+        <v>6236.314062063524</v>
       </c>
       <c r="D44" s="114">
         <v>55.34</v>
       </c>
       <c r="E44" s="64">
         <f>D44*C44</f>
-        <v>-585859.43742844288</v>
+        <v>345117.62019459542</v>
       </c>
       <c r="G44" s="79"/>
       <c r="H44" s="79"/>
@@ -11294,14 +11650,14 @@
       </c>
       <c r="C45" s="66">
         <f>'Scenario Metrics'!C45-'Baseline Metrics'!C45</f>
-        <v>-429.47124321287049</v>
+        <v>157.78891671233646</v>
       </c>
       <c r="D45" s="114">
         <v>380</v>
       </c>
       <c r="E45" s="64">
         <f>D45*C45</f>
-        <v>-163199.07242089079</v>
+        <v>59959.788350687857</v>
       </c>
       <c r="G45" s="79"/>
       <c r="H45" s="79"/>
@@ -11317,14 +11673,14 @@
       </c>
       <c r="C46" s="66">
         <f>'Scenario Metrics'!C46-'Baseline Metrics'!C46</f>
-        <v>-12.56270920858838</v>
+        <v>4.8947480773862253</v>
       </c>
       <c r="D46" s="114">
         <v>9800</v>
       </c>
       <c r="E46" s="64">
         <f>D46*C46</f>
-        <v>-123114.55024416612</v>
+        <v>47968.531158385005</v>
       </c>
       <c r="G46" s="79"/>
       <c r="H46" s="79"/>
@@ -11340,14 +11696,14 @@
       </c>
       <c r="C47" s="66">
         <f>'Scenario Metrics'!C47-'Baseline Metrics'!C47</f>
-        <v>-0.29804615321195593</v>
+        <v>0.1373714621511084</v>
       </c>
       <c r="D47" s="114">
         <v>7800</v>
       </c>
       <c r="E47" s="64">
         <f>D47*C47</f>
-        <v>-2324.7599950532563</v>
+        <v>1071.4974047786454</v>
       </c>
       <c r="G47" s="79"/>
       <c r="H47" s="79"/>
@@ -11363,14 +11719,14 @@
       </c>
       <c r="C48" s="77">
         <f>'Scenario Metrics'!C48-'Baseline Metrics'!C48</f>
-        <v>-16.794994561166749</v>
+        <v>7.2061157104484082</v>
       </c>
       <c r="D48" s="115">
         <v>6500</v>
       </c>
       <c r="E48" s="73">
         <f>D48*C48</f>
-        <v>-109167.46464758387</v>
+        <v>46839.75211791465</v>
       </c>
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
@@ -11396,7 +11752,7 @@
     </row>
     <row r="50" spans="2:16" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -11432,7 +11788,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52" s="79"/>
@@ -11490,7 +11846,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -11506,8 +11862,8 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="130" t="s">
-        <v>136</v>
+      <c r="A2" s="129" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -11515,31 +11871,31 @@
         <v>25</v>
       </c>
       <c r="R4" s="45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S4" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="T4" s="137" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="T4" s="136" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q5" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="R5" s="138">
+        <v>134</v>
+      </c>
+      <c r="R5" s="137">
         <v>635</v>
       </c>
-      <c r="S5" s="139">
+      <c r="S5" s="138">
         <v>196</v>
       </c>
-      <c r="T5" s="133">
+      <c r="T5" s="132">
         <f>SUM(R5:S5)</f>
         <v>831</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="V5" s="15">
         <v>300</v>
@@ -11547,66 +11903,66 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q6" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="140">
+        <v>135</v>
+      </c>
+      <c r="R6" s="139">
         <v>1588980000</v>
       </c>
-      <c r="S6" s="141">
+      <c r="S6" s="140">
         <v>492044000</v>
       </c>
-      <c r="T6" s="134">
+      <c r="T6" s="133">
         <f t="shared" ref="T6:T8" si="0">SUM(R6:S6)</f>
         <v>2081024000</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q7" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R7" s="131">
+        <v>136</v>
+      </c>
+      <c r="R7" s="130">
         <f>R5/$V$5</f>
         <v>2.1166666666666667</v>
       </c>
-      <c r="S7" s="132">
+      <c r="S7" s="131">
         <f>S5/$V$5</f>
         <v>0.65333333333333332</v>
       </c>
-      <c r="T7" s="133">
+      <c r="T7" s="132">
         <f t="shared" si="0"/>
         <v>2.77</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q8" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="R8" s="135">
+        <v>138</v>
+      </c>
+      <c r="R8" s="134">
         <f>R6/$V$5</f>
         <v>5296600</v>
       </c>
-      <c r="S8" s="136">
+      <c r="S8" s="135">
         <f>S6/$V$5</f>
         <v>1640146.6666666667</v>
       </c>
-      <c r="T8" s="136">
+      <c r="T8" s="135">
         <f t="shared" si="0"/>
         <v>6936746.666666667</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q12" s="143" t="s">
-        <v>145</v>
-      </c>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
+      <c r="Q12" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11621,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L166"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11633,10 +11989,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11644,46 +12000,61 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>439937</v>
+        <v>440263</v>
       </c>
       <c r="C3" s="1">
-        <v>3596539</v>
+        <v>3745413</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B23" s="1">
+        <v>20078.151816686699</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>138281.874327197</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="1">
-        <v>7109.3169051744599</v>
+        <v>95144.347853686995</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>4462957.4089607801</v>
       </c>
       <c r="D24" s="1">
-        <v>31036.030759405701</v>
+        <v>935407.64071463002</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>436833.99717360397</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -11691,98 +12062,98 @@
         <v>59</v>
       </c>
       <c r="B25" s="1">
-        <v>79644.664858888995</v>
+        <v>58471.533332225998</v>
       </c>
       <c r="C25" s="1">
-        <v>1838429.99215112</v>
+        <v>2949065.8912202101</v>
       </c>
       <c r="D25" s="1">
-        <v>778804.26832954597</v>
+        <v>615282.93037830701</v>
       </c>
       <c r="E25" s="1">
-        <v>183105.18983661901</v>
+        <v>266991.87199106498</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1">
-        <v>50174.221704896903</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>1520212.7364773799</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>649827.74711748201</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>115158.93435115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
-        <v>139739.37502232601</v>
+        <v>146870.333044022</v>
       </c>
       <c r="C27" s="1">
-        <v>5232123.7534378897</v>
+        <v>9646766.8723895308</v>
       </c>
       <c r="D27" s="1">
-        <v>2018676.7291772801</v>
+        <v>1982534.7314162899</v>
       </c>
       <c r="E27" s="1">
-        <v>333160.77982130501</v>
+        <v>659737.83198121004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
-        <v>11875.2825417325</v>
+        <v>7093.4707959244697</v>
       </c>
       <c r="C28" s="1">
-        <v>157512.464118698</v>
+        <v>260648.77409833501</v>
       </c>
       <c r="D28" s="1">
-        <v>77711.990680938106</v>
+        <v>65885.329583662606</v>
       </c>
       <c r="E28" s="1">
-        <v>23435.570839532898</v>
+        <v>25970.070098459499</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1">
-        <v>55902.4481666668</v>
+        <v>51303.543470418699</v>
       </c>
       <c r="C29" s="1">
-        <v>343689.09700000798</v>
+        <v>503947.85000004398</v>
       </c>
       <c r="D29" s="1">
-        <v>266855.12199998403</v>
+        <v>308150.83533886302</v>
       </c>
       <c r="E29" s="1">
-        <v>50639.096000000602</v>
+        <v>84778.318999997005</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
-        <v>88930.7968362213</v>
+        <v>210568.17040205299</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>477346.91556607798</v>
+        <v>1396649.27340612</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -11790,100 +12161,100 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1">
-        <v>50755</v>
+        <v>135714</v>
       </c>
       <c r="C43" s="1">
-        <v>1411362</v>
+        <v>1412252</v>
       </c>
       <c r="D43" s="1">
-        <v>1037976</v>
+        <v>942434</v>
       </c>
       <c r="E43" s="1">
-        <v>1991517</v>
+        <v>1845633</v>
       </c>
       <c r="F43" s="1">
-        <v>265967</v>
+        <v>169267</v>
       </c>
       <c r="G43" s="1">
-        <v>203525</v>
+        <v>222764</v>
       </c>
       <c r="H43" s="1">
-        <v>476471</v>
+        <v>921680</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1">
-        <v>10471</v>
+        <v>19872</v>
       </c>
       <c r="C63" s="1">
-        <v>147760</v>
+        <v>149538</v>
       </c>
       <c r="D63" s="1">
-        <v>86538</v>
+        <v>95276</v>
       </c>
       <c r="E63" s="1">
-        <v>169147</v>
+        <v>161956</v>
       </c>
       <c r="F63" s="1">
-        <v>39182</v>
+        <v>18740</v>
       </c>
       <c r="G63" s="1">
-        <v>42404</v>
+        <v>34775</v>
       </c>
       <c r="H63" s="1">
-        <v>84166</v>
+        <v>125840</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -11902,7 +12273,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="1">
-        <v>57875365.5899093</v>
+        <v>58745138.403274603</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -11910,10 +12281,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C84" s="1">
-        <v>5612535.5499993097</v>
+        <v>5385688.7966662701</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -11924,7 +12295,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="1">
-        <v>10151946.823307799</v>
+        <v>2144119.9397972901</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -11932,10 +12303,10 @@
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1">
-        <v>668296.68320000102</v>
+        <v>125951.76311584099</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -11948,282 +12319,282 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C103" s="1">
-        <v>36.689229545154397</v>
+        <v>61.135273145229696</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C104" s="1">
-        <v>40.737180241664198</v>
+        <v>60.622439060044897</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C105" s="1">
-        <v>63.3967137582082</v>
+        <v>115.252966022127</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="C106" s="1">
-        <v>60.110300383388001</v>
+        <v>105.370569104704</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C107" s="1">
-        <v>50755</v>
+        <v>135714</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C108" s="1">
-        <v>10471</v>
+        <v>19872</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C109" s="1">
-        <v>84166</v>
+        <v>150316</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C110" s="1">
-        <v>476471</v>
+        <v>1070251</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B123" s="1">
-        <v>30194.1172997512</v>
+        <v>32998.328821329502</v>
       </c>
       <c r="C123" s="1">
-        <v>726.76598208408097</v>
+        <v>1549.42946346483</v>
       </c>
       <c r="D123" s="1">
-        <v>2612.0462770589602</v>
+        <v>0</v>
       </c>
       <c r="E123" s="1">
-        <v>1823.4198498885901</v>
+        <v>4176.8392065477201</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B124" s="1">
-        <v>931.715782639846</v>
+        <v>1016.84951772081</v>
       </c>
       <c r="C124" s="1">
-        <v>1.0782139043130099</v>
+        <v>2.3507057285806701</v>
       </c>
       <c r="D124" s="1">
-        <v>72.497817504985704</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>2.7040372268608199</v>
+        <v>6.1977099834677496</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B125" s="1">
-        <v>28.9522085559936</v>
+        <v>31.603177081125502</v>
       </c>
       <c r="C125" s="1">
-        <v>0.18668349769758599</v>
+        <v>0.42737634180412298</v>
       </c>
       <c r="D125" s="1">
-        <v>2.3353808691805802</v>
+        <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>0.46921716666847002</v>
+        <v>1.0655730351751</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B126" s="1">
-        <v>0.825394599211971</v>
+        <v>0.90151596917991705</v>
       </c>
       <c r="C126" s="1">
-        <v>1.7668974677118299E-2</v>
+        <v>3.8852000638869101E-2</v>
       </c>
       <c r="D126" s="1">
-        <v>5.7285349173276399E-2</v>
+        <v>0</v>
       </c>
       <c r="E126" s="1">
-        <v>4.4380830923265703E-2</v>
+        <v>0.101268638572356</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B127" s="1">
-        <v>36.966914037397103</v>
+        <v>40.4128604721977</v>
       </c>
       <c r="C127" s="1">
-        <v>9.2122448273229296E-2</v>
+        <v>0.19305575553050999</v>
       </c>
       <c r="D127" s="1">
-        <v>2.8223112740764198</v>
+        <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>0.23084710385169599</v>
+        <v>0.53193160611777801</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B128" s="1">
-        <v>1670942.4513682299</v>
+        <v>1826127.51697237</v>
       </c>
       <c r="C128" s="1">
-        <v>40219.229448532999</v>
+        <v>85745.426508143501</v>
       </c>
       <c r="D128" s="1">
-        <v>144550.64097244301</v>
+        <v>0</v>
       </c>
       <c r="E128" s="1">
-        <v>100908.054492835</v>
+        <v>231146.281690351</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B129" s="1">
-        <v>354051.99740314099</v>
+        <v>386402.81673390698</v>
       </c>
       <c r="C129" s="1">
-        <v>409.72128363894399</v>
+        <v>893.26817686065601</v>
       </c>
       <c r="D129" s="1">
-        <v>27549.170651894601</v>
+        <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>1027.5341462071101</v>
+        <v>2355.1297937177401</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B130" s="1">
-        <v>283731.643848737</v>
+        <v>309711.13539503003</v>
       </c>
       <c r="C130" s="1">
-        <v>1829.49827743634</v>
+        <v>4188.2881496804002</v>
       </c>
       <c r="D130" s="1">
-        <v>22886.7325179697</v>
+        <v>0</v>
       </c>
       <c r="E130" s="1">
-        <v>4598.3282333509997</v>
+        <v>10442.6157447159</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B131" s="1">
-        <v>288341.929491697</v>
+        <v>315220.31168314198</v>
       </c>
       <c r="C131" s="1">
-        <v>718.55509653118804</v>
+        <v>1505.8348931379801</v>
       </c>
       <c r="D131" s="1">
-        <v>22014.027937796</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1">
-        <v>1800.6074100432299</v>
+        <v>4149.0665277186699</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B132" s="1">
-        <v>5365.0648948778098</v>
+        <v>5859.8537996694604</v>
       </c>
       <c r="C132" s="1">
-        <v>114.848335401269</v>
+        <v>252.53800415264899</v>
       </c>
       <c r="D132" s="1">
-        <v>372.35476962629701</v>
+        <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>288.475401001227</v>
+        <v>658.24615072031202</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -12231,45 +12602,45 @@
         <v>0</v>
       </c>
       <c r="B143" s="1">
-        <v>71154706.828618199</v>
+        <v>77716893.894820496</v>
       </c>
       <c r="C143" s="1">
-        <v>6698103.7483710097</v>
+        <v>3677707.0659114099</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="G162" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H162" s="2" t="s">
+      <c r="I162" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="J162" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="K162" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="L162" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="L162" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -12289,25 +12660,25 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F163" s="1">
-        <v>24947362.333571699</v>
+        <v>31778582.410302799</v>
       </c>
       <c r="G163" s="1">
-        <v>36.348306920013997</v>
+        <v>46.301394571811102</v>
       </c>
       <c r="H163" s="1">
-        <v>17.565861924227502</v>
+        <v>22.375840110995199</v>
       </c>
       <c r="I163" s="1">
-        <v>0.32431571033643303</v>
+        <v>0.41312157133393601</v>
       </c>
       <c r="J163" s="1">
-        <v>94505.597992036404</v>
+        <v>120383.62588670899</v>
       </c>
       <c r="K163" s="1">
-        <v>1326222575279.1799</v>
+        <v>1689375928380.1299</v>
       </c>
       <c r="L163" s="1">
-        <v>810789275841.08105</v>
+        <v>1032803928334.84</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -12327,25 +12698,25 @@
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="F164" s="1">
-        <v>3813404.4333275999</v>
+        <v>4596828.5440923804</v>
       </c>
       <c r="G164" s="1">
-        <v>5.5561302593583104</v>
+        <v>6.6975791887425897</v>
       </c>
       <c r="H164" s="1">
-        <v>3.1480263741828698</v>
+        <v>3.7947555124049601</v>
       </c>
       <c r="I164" s="1">
-        <v>5.8345087829912302E-2</v>
+        <v>7.0331476724613304E-2</v>
       </c>
       <c r="J164" s="1">
-        <v>14445.938674331601</v>
+        <v>17413.7058907307</v>
       </c>
       <c r="K164" s="1">
-        <v>237675991250.806</v>
+        <v>286504041186.57501</v>
       </c>
       <c r="L164" s="1">
-        <v>145862719574.78101</v>
+        <v>175828691811.53299</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -12365,25 +12736,25 @@
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="F165" s="1">
-        <v>20416247.119415302</v>
+        <v>21408384.468215398</v>
       </c>
       <c r="G165" s="1">
-        <v>29.7464720529881</v>
+        <v>31.192016170189898</v>
       </c>
       <c r="H165" s="1">
-        <v>16.8539386570312</v>
+        <v>17.672963912663299</v>
       </c>
       <c r="I165" s="1">
-        <v>0.312368580927054</v>
+        <v>0.32754828236369599</v>
       </c>
       <c r="J165" s="1">
-        <v>77340.827337769006</v>
+        <v>81099.242042493701</v>
       </c>
       <c r="K165" s="1">
-        <v>1272472368605.8601</v>
+        <v>1334308775406.0801</v>
       </c>
       <c r="L165" s="1">
-        <v>780921452317.63501</v>
+        <v>818870705909.23999</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -12403,25 +12774,25 @@
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="F166" s="1">
-        <v>5854316.2131772498</v>
+        <v>6589326.3064214299</v>
       </c>
       <c r="G166" s="1">
-        <v>8.5297387225992498</v>
+        <v>9.6006484284560205</v>
       </c>
       <c r="H166" s="1">
-        <v>4.8328317030372299</v>
+        <v>5.4395942951717897</v>
       </c>
       <c r="I166" s="1">
-        <v>8.9571038061611902E-2</v>
+        <v>0.100816692488248</v>
       </c>
       <c r="J166" s="1">
-        <v>22177.3206787581</v>
+        <v>24961.685913985701</v>
       </c>
       <c r="K166" s="1">
-        <v>364878793579.31097</v>
+        <v>410689369285.46997</v>
       </c>
       <c r="L166" s="1">
-        <v>223927595154.03</v>
+        <v>252041731220.62</v>
       </c>
     </row>
   </sheetData>
@@ -12431,24 +12802,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L146"/>
+  <dimension ref="A2:L166"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="17" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12456,46 +12829,58 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>620863</v>
+        <v>894825</v>
       </c>
       <c r="C3" s="1">
-        <v>3596539</v>
+        <v>4771555</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B23" s="1">
+        <v>46679.723674947898</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>201930.05562972499</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="1">
-        <v>68254.602092589397</v>
+        <v>192516.19924065401</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>5283712.48112268</v>
       </c>
       <c r="D24" s="1">
-        <v>234367.838308159</v>
+        <v>1172723.47158211</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>853793.31498340098</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -12503,98 +12888,98 @@
         <v>59</v>
       </c>
       <c r="B25" s="1">
-        <v>73755.209582346695</v>
+        <v>95745.838621486502</v>
       </c>
       <c r="C25" s="1">
-        <v>24116478.999382298</v>
+        <v>3171474.2382774302</v>
       </c>
       <c r="D25" s="1">
-        <v>667427.33668609895</v>
+        <v>702617.10985991603</v>
       </c>
       <c r="E25" s="1">
-        <v>2301524.38050958</v>
+        <v>422046.62438658398</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1">
-        <v>94211.298895597094</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>35360086.819159098</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>930986.44054543995</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>3261854.9944733898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
-        <v>78659.819331701205</v>
+        <v>385304.87288529699</v>
       </c>
       <c r="C27" s="1">
-        <v>36962991.193089001</v>
+        <v>11931449.5974964</v>
       </c>
       <c r="D27" s="1">
-        <v>1001503.4938285101</v>
+        <v>2623498.2341630999</v>
       </c>
       <c r="E27" s="1">
-        <v>2511366.2534246901</v>
+        <v>1671691.64876577</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1">
-        <v>12870.9584752849</v>
+        <v>11423.2763316701</v>
       </c>
       <c r="C28" s="1">
-        <v>2352481.2306099799</v>
+        <v>294516.85979613202</v>
       </c>
       <c r="D28" s="1">
-        <v>74226.224389490904</v>
+        <v>78999.845582397</v>
       </c>
       <c r="E28" s="1">
-        <v>379067.44624020997</v>
+        <v>40814.7180705555</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1">
-        <v>205178.34216666399</v>
+        <v>127269.974107152</v>
       </c>
       <c r="C29" s="1">
-        <v>1092836.87200005</v>
+        <v>765214.92899995099</v>
       </c>
       <c r="D29" s="1">
-        <v>851396.689833357</v>
+        <v>508867.97084754799</v>
       </c>
       <c r="E29" s="1">
-        <v>185557.83799999399</v>
+        <v>196740.23300000399</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
-        <v>234726.58027650099</v>
+        <v>449012.09143626102</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>1004470.18451645</v>
+        <v>2002291.2315626901</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -12602,100 +12987,100 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1">
-        <v>214282</v>
+        <v>192864</v>
       </c>
       <c r="C43" s="1">
-        <v>1291953</v>
+        <v>1727514</v>
       </c>
       <c r="D43" s="1">
-        <v>1360347</v>
+        <v>1070852</v>
       </c>
       <c r="E43" s="1">
-        <v>1460895</v>
+        <v>2388042</v>
       </c>
       <c r="F43" s="1">
-        <v>266294</v>
+        <v>194419</v>
       </c>
       <c r="G43" s="1">
-        <v>438437</v>
+        <v>362554</v>
       </c>
       <c r="H43" s="1">
-        <v>770173</v>
+        <v>1327387</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="1">
-        <v>57838</v>
+        <v>43085</v>
       </c>
       <c r="C63" s="1">
-        <v>169088</v>
+        <v>284271</v>
       </c>
       <c r="D63" s="1">
-        <v>164531</v>
+        <v>153135</v>
       </c>
       <c r="E63" s="1">
-        <v>159157</v>
+        <v>382455</v>
       </c>
       <c r="F63" s="1">
-        <v>48865</v>
+        <v>28339</v>
       </c>
       <c r="G63" s="1">
-        <v>107213</v>
+        <v>85277</v>
       </c>
       <c r="H63" s="1">
-        <v>176877</v>
+        <v>275047</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -12714,7 +13099,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="1">
-        <v>56495834.403262399</v>
+        <v>74304866.556520596</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -12722,10 +13107,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C84" s="1">
-        <v>8299883.5366654303</v>
+        <v>12086255.966665801</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -12736,7 +13121,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="1">
-        <v>2944293.1610001898</v>
+        <v>2898230.2563038701</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -12744,400 +13129,496 @@
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1">
-        <v>231286.259899995</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>338701.39160453703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="1">
+        <v>62.820450357678901</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>6</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="1">
+        <v>65.005997922638201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>7</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="1">
+        <v>113.09798627069701</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="1">
+        <v>104.91706106995601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="1">
+        <v>192864</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="1">
+        <v>43085</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="1">
+        <v>333874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1563494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="2" t="s">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B123" s="1">
+        <v>39232.8954690514</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1589.89856515312</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>4138.1175192010596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="1">
-        <v>17402.856354931599</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2728.8681482222501</v>
-      </c>
-      <c r="D103" s="1">
-        <v>1404.6227278670999</v>
-      </c>
-      <c r="E103" s="1">
-        <v>3233.45650684676</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="B124" s="1">
+        <v>1174.6219657407901</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2.4052041863076301</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>6.1596802180973604</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="1">
-        <v>528.71683770959703</v>
-      </c>
-      <c r="C104" s="1">
-        <v>4.20128344807517</v>
-      </c>
-      <c r="D104" s="1">
-        <v>40.735130652166198</v>
-      </c>
-      <c r="E104" s="1">
-        <v>4.8713562532966304</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B125" s="1">
+        <v>36.594429326935497</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0.41013850321954998</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.98630670533589604</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B105" s="1">
-        <v>16.407201930818999</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.78787822363800397</v>
-      </c>
-      <c r="D105" s="1">
-        <v>1.3000983008024101</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0.88560242569244296</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="B126" s="1">
+        <v>1.0438307515721099</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3.8508196749559603E-2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>9.6669122220581105E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="1">
-        <v>0.46478738508698297</v>
-      </c>
-      <c r="C106" s="1">
-        <v>6.9494298869976504E-2</v>
-      </c>
-      <c r="D106" s="1">
-        <v>3.1754706137046201E-2</v>
-      </c>
-      <c r="E106" s="1">
-        <v>8.0647210679669706E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="B127" s="1">
+        <v>47.594862253086099</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0.204643868803291</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.54445742240500905</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="1">
+        <v>2171148.4352572998</v>
+      </c>
+      <c r="C128" s="1">
+        <v>87984.986595573602</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>229003.423512587</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="1">
+        <v>446356.34698149998</v>
+      </c>
+      <c r="C129" s="1">
+        <v>913.97759079689797</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2340.6784828770001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="1">
+        <v>358625.40740396798</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4019.3573315515901</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>9665.8057122917908</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="1">
+        <v>371239.925574072</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1596.2221766656701</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4246.7678947590703</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6784.8998852187297</v>
+      </c>
+      <c r="C132" s="1">
+        <v>250.30327887213701</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>628.349294433777</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B107" s="1">
-        <v>21.048908136944</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.33292330799722297</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1.5361821952672099</v>
-      </c>
-      <c r="E107" s="1">
-        <v>0.39918666222326499</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="1">
-        <v>963074.07068191597</v>
-      </c>
-      <c r="C108" s="1">
-        <v>151015.56332261901</v>
-      </c>
-      <c r="D108" s="1">
-        <v>77731.821760165607</v>
-      </c>
-      <c r="E108" s="1">
-        <v>178939.483088899</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="1">
-        <v>200912.398329647</v>
-      </c>
-      <c r="C109" s="1">
-        <v>1596.48771026857</v>
-      </c>
-      <c r="D109" s="1">
-        <v>15479.349647823199</v>
-      </c>
-      <c r="E109" s="1">
-        <v>1851.1153762527199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B110" s="1">
-        <v>160790.57892202699</v>
-      </c>
-      <c r="C110" s="1">
-        <v>7721.2065916524398</v>
-      </c>
-      <c r="D110" s="1">
-        <v>12740.963347863701</v>
-      </c>
-      <c r="E110" s="1">
-        <v>8678.9037717859392</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B111" s="1">
-        <v>164181.483468163</v>
-      </c>
-      <c r="C111" s="1">
-        <v>2596.8018023783402</v>
-      </c>
-      <c r="D111" s="1">
-        <v>11982.2211230843</v>
-      </c>
-      <c r="E111" s="1">
-        <v>3113.6559653414702</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B112" s="1">
-        <v>3021.11800306539</v>
-      </c>
-      <c r="C112" s="1">
-        <v>451.71294265484698</v>
-      </c>
-      <c r="D112" s="1">
-        <v>206.4055898908</v>
-      </c>
-      <c r="E112" s="1">
-        <v>524.206869417853</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>40067878.024739899</v>
-      </c>
-      <c r="C123" s="1">
-        <v>6750873.0210030898</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B142" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L142" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>0</v>
       </c>
       <c r="B143" s="1">
+        <v>89985409.618285596</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3547961.1278252099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1">
         <v>1</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C163" s="1">
         <v>1.4570000000000001</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D163" s="1">
         <v>0.70411699999999999</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E163" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F143" s="1">
-        <v>20980682.2635267</v>
-      </c>
-      <c r="G143" s="1">
-        <v>30.568854057958401</v>
-      </c>
-      <c r="H143" s="1">
-        <v>14.7728550533476</v>
-      </c>
-      <c r="I143" s="1">
-        <v>0.27274886942584697</v>
-      </c>
-      <c r="J143" s="1">
-        <v>79479.020550691901</v>
-      </c>
-      <c r="K143" s="1">
-        <v>1115350556527.75</v>
-      </c>
-      <c r="L143" s="1">
-        <v>681872173564.61902</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="F163" s="1">
+        <v>34559949.7878526</v>
+      </c>
+      <c r="G163" s="1">
+        <v>50.353846840901198</v>
+      </c>
+      <c r="H163" s="1">
+        <v>24.334248164773399</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0.44927934724208302</v>
+      </c>
+      <c r="J163" s="1">
+        <v>130920.001786343</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1837235736440.3899</v>
+      </c>
+      <c r="L163" s="1">
+        <v>1123198368105.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
         <v>1</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B164" s="1">
         <v>3</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C164" s="1">
         <v>1.4570000000000001</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D164" s="1">
         <v>0.82551600000000003</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E164" s="1">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="F144" s="1">
-        <v>2790883.90887105</v>
-      </c>
-      <c r="G144" s="1">
-        <v>4.06631785522511</v>
-      </c>
-      <c r="H144" s="1">
-        <v>2.3039193209155902</v>
-      </c>
-      <c r="I144" s="1">
-        <v>4.2700523805727003E-2</v>
-      </c>
-      <c r="J144" s="1">
-        <v>10572.426423585301</v>
-      </c>
-      <c r="K144" s="1">
-        <v>173945908729.12701</v>
-      </c>
-      <c r="L144" s="1">
-        <v>106751309514.31799</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="F164" s="1">
+        <v>5217474.0824122699</v>
+      </c>
+      <c r="G164" s="1">
+        <v>7.6018597380746797</v>
+      </c>
+      <c r="H164" s="1">
+        <v>4.3071083346166503</v>
+      </c>
+      <c r="I164" s="1">
+        <v>7.9827353460907802E-2</v>
+      </c>
+      <c r="J164" s="1">
+        <v>19764.835318994199</v>
+      </c>
+      <c r="K164" s="1">
+        <v>325186679263.55701</v>
+      </c>
+      <c r="L164" s="1">
+        <v>199568383652.26901</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
         <v>2</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B165" s="1">
         <v>5</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C165" s="1">
         <v>1.4570000000000001</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D165" s="1">
         <v>0.82551600000000003</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E165" s="1">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="F145" s="1">
-        <v>12733606.297025699</v>
-      </c>
-      <c r="G145" s="1">
-        <v>18.552864374766401</v>
-      </c>
-      <c r="H145" s="1">
-        <v>10.511795735895401</v>
-      </c>
-      <c r="I145" s="1">
-        <v>0.19482417634449301</v>
-      </c>
-      <c r="J145" s="1">
-        <v>48237.447374392599</v>
-      </c>
-      <c r="K145" s="1">
-        <v>793640578060.10596</v>
-      </c>
-      <c r="L145" s="1">
-        <v>487060440861.23199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="F165" s="1">
+        <v>26171608.485614698</v>
+      </c>
+      <c r="G165" s="1">
+        <v>38.132033563540602</v>
+      </c>
+      <c r="H165" s="1">
+        <v>21.605081550610699</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0.40042560982990399</v>
+      </c>
+      <c r="J165" s="1">
+        <v>99143.287265205407</v>
+      </c>
+      <c r="K165" s="1">
+        <v>1631183657071.1101</v>
+      </c>
+      <c r="L165" s="1">
+        <v>1001064024574.76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
         <v>3</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B166" s="1">
         <v>7</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C166" s="1">
         <v>1.4570000000000001</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D166" s="1">
         <v>0.82551600000000003</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E166" s="1">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="F146" s="1">
-        <v>3870847.3598859301</v>
-      </c>
-      <c r="G146" s="1">
-        <v>5.63982460335379</v>
-      </c>
-      <c r="H146" s="1">
-        <v>3.19544642914359</v>
-      </c>
-      <c r="I146" s="1">
-        <v>5.9223964606254703E-2</v>
-      </c>
-      <c r="J146" s="1">
-        <v>14663.5439687199</v>
-      </c>
-      <c r="K146" s="1">
-        <v>241256205400.341</v>
-      </c>
-      <c r="L146" s="1">
-        <v>148059911515.63699</v>
+      <c r="F166" s="1">
+        <v>7993120.79131117</v>
+      </c>
+      <c r="G166" s="1">
+        <v>11.645976992940399</v>
+      </c>
+      <c r="H166" s="1">
+        <v>6.5984491031600303</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0.12229474810706099</v>
+      </c>
+      <c r="J166" s="1">
+        <v>30279.540181644999</v>
+      </c>
+      <c r="K166" s="1">
+        <v>498182907288.58197</v>
+      </c>
+      <c r="L166" s="1">
+        <v>305736870267.65198</v>
       </c>
     </row>
   </sheetData>
@@ -13149,7 +13630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -13160,7 +13641,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -13194,7 +13675,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>

--- a/output_templates/Benefit_Cost_Template.xlsx
+++ b/output_templates/Benefit_Cost_Template.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison Charts" sheetId="12" r:id="rId1"/>
     <sheet name="Baseline Metrics" sheetId="1" r:id="rId2"/>
     <sheet name="Scenario Metrics" sheetId="9" r:id="rId3"/>
-    <sheet name="Difference" sheetId="10" r:id="rId4"/>
-    <sheet name="HeatResults" sheetId="6" r:id="rId5"/>
-    <sheet name="RawBaseline" sheetId="4" r:id="rId6"/>
-    <sheet name="RawScenario" sheetId="5" r:id="rId7"/>
-    <sheet name="Baseline Charts" sheetId="7" r:id="rId8"/>
-    <sheet name="Scenario Charts" sheetId="11" r:id="rId9"/>
+    <sheet name="BaselineScenario" sheetId="13" r:id="rId4"/>
+    <sheet name="Difference" sheetId="10" r:id="rId5"/>
+    <sheet name="HeatResults" sheetId="6" r:id="rId6"/>
+    <sheet name="RawBaseline" sheetId="4" r:id="rId7"/>
+    <sheet name="RawScenario" sheetId="5" r:id="rId8"/>
+    <sheet name="Baseline Charts" sheetId="7" r:id="rId9"/>
+    <sheet name="Scenario Charts" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="160">
   <si>
     <t xml:space="preserve">Toll and Auto Operating Cost </t>
   </si>
@@ -584,12 +585,48 @@
   <si>
     <t>2014 Base</t>
   </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>CO2 ($)</t>
+  </si>
+  <si>
+    <t>CO ($)</t>
+  </si>
+  <si>
+    <t>NO ($)</t>
+  </si>
+  <si>
+    <t>PM ($)</t>
+  </si>
+  <si>
+    <t>VOC ($)</t>
+  </si>
+  <si>
+    <t>Accident Type</t>
+  </si>
+  <si>
+    <t>per capita</t>
+  </si>
+  <si>
+    <t>Annual per Capota</t>
+  </si>
+  <si>
+    <t>Accident Type (per capita)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -600,7 +637,8 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1035,7 +1073,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1344,21 +1382,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7436,8 +7500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7468,12 +7532,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8718,10 +8817,7 @@
         <f>D44*C44</f>
         <v>2143019.2251708694</v>
       </c>
-      <c r="G44" s="145">
-        <f>C44/$C$7</f>
-        <v>1.0339206248107231E-2</v>
-      </c>
+      <c r="G44" s="142"/>
       <c r="H44" s="79"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -8744,10 +8840,7 @@
         <f>D45*C45</f>
         <v>389651.21470448625</v>
       </c>
-      <c r="G45" s="145">
-        <f t="shared" ref="G45:G48" si="7">C45/$C$7</f>
-        <v>2.7377432967548798E-4</v>
-      </c>
+      <c r="G45" s="142"/>
       <c r="H45" s="79"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -8770,10 +8863,7 @@
         <f>D46*C46</f>
         <v>324342.03928942623</v>
       </c>
-      <c r="G46" s="145">
-        <f t="shared" si="7"/>
-        <v>8.8364424585765892E-6</v>
-      </c>
+      <c r="G46" s="142"/>
       <c r="H46" s="79"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -8796,10 +8886,7 @@
         <f>D47*C47</f>
         <v>8124.7655454509086</v>
       </c>
-      <c r="G47" s="145">
-        <f t="shared" si="7"/>
-        <v>2.7810994632398138E-7</v>
-      </c>
+      <c r="G47" s="142"/>
       <c r="H47" s="79"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -8822,10 +8909,7 @@
         <f>D48*C48</f>
         <v>267396.01091999892</v>
       </c>
-      <c r="G48" s="145">
-        <f t="shared" si="7"/>
-        <v>1.0983527806905671E-5</v>
-      </c>
+      <c r="G48" s="142"/>
       <c r="H48" s="79"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
@@ -8927,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9350,7 +9434,7 @@
       <c r="L15" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="144">
+      <c r="M15" s="56">
         <f>C15/$C$7*$R$15</f>
         <v>32.989223439693355</v>
       </c>
@@ -9414,7 +9498,7 @@
         <v>58</v>
       </c>
       <c r="M16" s="65">
-        <f t="shared" ref="M15:M20" si="6">C16/$C$7*$R$15</f>
+        <f t="shared" ref="M16:M20" si="6">C16/$C$7*$R$15</f>
         <v>14.746431361459022</v>
       </c>
       <c r="N16" s="30">
@@ -10174,7 +10258,7 @@
         <v>2488136.8453654647</v>
       </c>
       <c r="G44" s="79"/>
-      <c r="H44" s="146"/>
+      <c r="H44" s="143"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
       <c r="K44" s="54"/>
@@ -10197,7 +10281,7 @@
         <v>449611.00305517408</v>
       </c>
       <c r="G45" s="79"/>
-      <c r="H45" s="146"/>
+      <c r="H45" s="143"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
       <c r="K45" s="54"/>
@@ -10220,7 +10304,7 @@
         <v>372310.57044781127</v>
       </c>
       <c r="G46" s="79"/>
-      <c r="H46" s="146"/>
+      <c r="H46" s="143"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
       <c r="K46" s="54"/>
@@ -10243,7 +10327,7 @@
         <v>9196.2629502295549</v>
       </c>
       <c r="G47" s="79"/>
-      <c r="H47" s="146"/>
+      <c r="H47" s="143"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
       <c r="K47" s="54"/>
@@ -10266,7 +10350,7 @@
         <v>314235.7630379136</v>
       </c>
       <c r="G48" s="79"/>
-      <c r="H48" s="146"/>
+      <c r="H48" s="143"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
       <c r="K48" s="54"/>
@@ -10365,10 +10449,539 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="157" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="149" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="150">
+        <f>'Baseline Metrics'!C44</f>
+        <v>38724.59749134205</v>
+      </c>
+      <c r="C3" s="144">
+        <f>'Scenario Metrics'!C44</f>
+        <v>44960.911553405575</v>
+      </c>
+      <c r="D3" s="146">
+        <f>B3-C3</f>
+        <v>-6236.314062063524</v>
+      </c>
+      <c r="F3" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="160">
+        <f>B3/'Baseline Metrics'!$C$7*300</f>
+        <v>3.1017618744321691</v>
+      </c>
+      <c r="H3" s="160">
+        <f>C3/'Scenario Metrics'!$C$7*300</f>
+        <v>2.8268087585748614</v>
+      </c>
+      <c r="I3" s="161">
+        <f>H3-G3</f>
+        <v>-0.27495311585730775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="151">
+        <f>'Baseline Metrics'!C45</f>
+        <v>1025.3979334328585</v>
+      </c>
+      <c r="C4" s="144">
+        <f>'Scenario Metrics'!C45</f>
+        <v>1183.186850145195</v>
+      </c>
+      <c r="D4" s="146">
+        <f t="shared" ref="D4:D7" si="0">B4-C4</f>
+        <v>-157.78891671233646</v>
+      </c>
+      <c r="F4" s="157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="160">
+        <f>B4/'Baseline Metrics'!$C$7*300</f>
+        <v>8.2132298902646395E-2</v>
+      </c>
+      <c r="H4" s="160">
+        <f>C4/'Scenario Metrics'!$C$7*300</f>
+        <v>7.4390016471267431E-2</v>
+      </c>
+      <c r="I4" s="161">
+        <f t="shared" ref="I4:I7" si="1">G4-H4</f>
+        <v>7.7422824313789634E-3</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="151">
+        <f>'Baseline Metrics'!C46</f>
+        <v>33.09612645810472</v>
+      </c>
+      <c r="C5" s="144">
+        <f>'Scenario Metrics'!C46</f>
+        <v>37.990874535490946</v>
+      </c>
+      <c r="D5" s="146">
+        <f t="shared" si="0"/>
+        <v>-4.8947480773862253</v>
+      </c>
+      <c r="F5" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="160">
+        <f>B5/'Baseline Metrics'!$C$7*300</f>
+        <v>2.6509327375729766E-3</v>
+      </c>
+      <c r="H5" s="160">
+        <f>C5/'Scenario Metrics'!$C$7*300</f>
+        <v>2.3885845097975991E-3</v>
+      </c>
+      <c r="I5" s="161">
+        <f t="shared" si="1"/>
+        <v>2.6234822777537747E-4</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="151">
+        <f>'Baseline Metrics'!C47</f>
+        <v>1.0416366083911421</v>
+      </c>
+      <c r="C6" s="144">
+        <f>'Scenario Metrics'!C47</f>
+        <v>1.1790080705422505</v>
+      </c>
+      <c r="D6" s="146">
+        <f t="shared" si="0"/>
+        <v>-0.1373714621511084</v>
+      </c>
+      <c r="F6" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="160">
+        <f>B6/'Baseline Metrics'!$C$7*300</f>
+        <v>8.3432983897194414E-5</v>
+      </c>
+      <c r="H6" s="160">
+        <f>C6/'Scenario Metrics'!$C$7*300</f>
+        <v>7.4127285793137708E-5</v>
+      </c>
+      <c r="I6" s="161">
+        <f t="shared" si="1"/>
+        <v>9.3056981040567059E-6</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="152">
+        <f>'Baseline Metrics'!C48</f>
+        <v>41.137847833845989</v>
+      </c>
+      <c r="C7" s="145">
+        <f>'Scenario Metrics'!C48</f>
+        <v>48.343963544294397</v>
+      </c>
+      <c r="D7" s="147">
+        <f t="shared" si="0"/>
+        <v>-7.2061157104484082</v>
+      </c>
+      <c r="F7" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="160">
+        <f>B7/'Baseline Metrics'!$C$7*300</f>
+        <v>3.2950583420717013E-3</v>
+      </c>
+      <c r="H7" s="160">
+        <f>C7/'Scenario Metrics'!$C$7*300</f>
+        <v>3.0395099843317994E-3</v>
+      </c>
+      <c r="I7" s="161">
+        <f t="shared" si="1"/>
+        <v>2.5554835773990191E-4</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="153">
+        <f>'Baseline Metrics'!E44</f>
+        <v>2143019.2251708694</v>
+      </c>
+      <c r="C11" s="154">
+        <f>'Scenario Metrics'!E44</f>
+        <v>2488136.8453654647</v>
+      </c>
+      <c r="D11" s="146">
+        <f>B11-C11</f>
+        <v>-345117.62019459531</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="153">
+        <f>ROUND(B11,-3)</f>
+        <v>2143000</v>
+      </c>
+      <c r="H11" s="153">
+        <f t="shared" ref="H11:H15" si="2">ROUND(C11,-3)</f>
+        <v>2488000</v>
+      </c>
+      <c r="I11" s="153">
+        <f t="shared" ref="I11:I15" si="3">ROUND(D11,-3)</f>
+        <v>-345000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="153">
+        <f>'Baseline Metrics'!E45</f>
+        <v>389651.21470448625</v>
+      </c>
+      <c r="C12" s="154">
+        <f>'Scenario Metrics'!E45</f>
+        <v>449611.00305517408</v>
+      </c>
+      <c r="D12" s="146">
+        <f t="shared" ref="D12:D15" si="4">B12-C12</f>
+        <v>-59959.788350687828</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="153">
+        <f t="shared" ref="G12:G15" si="5">ROUND(B12,-3)</f>
+        <v>390000</v>
+      </c>
+      <c r="H12" s="153">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="I12" s="153">
+        <f t="shared" si="3"/>
+        <v>-60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="153">
+        <f>'Baseline Metrics'!E46</f>
+        <v>324342.03928942623</v>
+      </c>
+      <c r="C13" s="154">
+        <f>'Scenario Metrics'!E46</f>
+        <v>372310.57044781127</v>
+      </c>
+      <c r="D13" s="146">
+        <f t="shared" si="4"/>
+        <v>-47968.531158385042</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="153">
+        <f t="shared" si="5"/>
+        <v>324000</v>
+      </c>
+      <c r="H13" s="153">
+        <f t="shared" si="2"/>
+        <v>372000</v>
+      </c>
+      <c r="I13" s="153">
+        <f t="shared" si="3"/>
+        <v>-48000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="153">
+        <f>'Baseline Metrics'!E47</f>
+        <v>8124.7655454509086</v>
+      </c>
+      <c r="C14" s="154">
+        <f>'Scenario Metrics'!E47</f>
+        <v>9196.2629502295549</v>
+      </c>
+      <c r="D14" s="146">
+        <f t="shared" si="4"/>
+        <v>-1071.4974047786463</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="153">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="H14" s="153">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="I14" s="153">
+        <f t="shared" si="3"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="153">
+        <f>'Baseline Metrics'!E48</f>
+        <v>267396.01091999892</v>
+      </c>
+      <c r="C15" s="154">
+        <f>'Scenario Metrics'!E48</f>
+        <v>314235.7630379136</v>
+      </c>
+      <c r="D15" s="147">
+        <f t="shared" si="4"/>
+        <v>-46839.752117914672</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="153">
+        <f t="shared" si="5"/>
+        <v>267000</v>
+      </c>
+      <c r="H15" s="153">
+        <f t="shared" si="2"/>
+        <v>314000</v>
+      </c>
+      <c r="I15" s="153">
+        <f t="shared" si="3"/>
+        <v>-47000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A18" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="149" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="157" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="158" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="150">
+        <f>'Baseline Metrics'!C38</f>
+        <v>49.283153831235246</v>
+      </c>
+      <c r="C19" s="144">
+        <f>'Scenario Metrics'!C38</f>
+        <v>56.844887153160776</v>
+      </c>
+      <c r="D19" s="146">
+        <f>B19-C19</f>
+        <v>-7.56173332192553</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="150">
+        <f>B19/'Baseline Metrics'!$C$7</f>
+        <v>1.3158269550310005E-5</v>
+      </c>
+      <c r="H19" s="150" t="e">
+        <f>C19/'Baseline Metrics'!D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="146" t="e">
+        <f>G19-H19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="151">
+        <f>'Baseline Metrics'!C39</f>
+        <v>93.791638359199609</v>
+      </c>
+      <c r="C20" s="144">
+        <f>'Scenario Metrics'!C39</f>
+        <v>107.73371713545689</v>
+      </c>
+      <c r="D20" s="146">
+        <f t="shared" ref="D20:D21" si="6">B20-C20</f>
+        <v>-13.942078776257276</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="150">
+        <f>B20/'Baseline Metrics'!$C$7</f>
+        <v>2.5041734612230909E-5</v>
+      </c>
+      <c r="H20" s="150" t="e">
+        <f>C20/'Baseline Metrics'!D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="146" t="e">
+        <f t="shared" ref="I20:I21" si="7">G20-H20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="152">
+        <f>'Baseline Metrics'!C40</f>
+        <v>0.9118180229104933</v>
+      </c>
+      <c r="C21" s="145">
+        <f>'Scenario Metrics'!C40</f>
+        <v>1.0518270586399558</v>
+      </c>
+      <c r="D21" s="147">
+        <f t="shared" si="6"/>
+        <v>-0.14000903572946255</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="150">
+        <f>B21/'Baseline Metrics'!$C$7</f>
+        <v>2.4344925991085448E-7</v>
+      </c>
+      <c r="H21" s="150" t="e">
+        <f>C21/'Baseline Metrics'!D9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="147" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10626,7 +11239,10 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="162">
+        <f>C4*'Scenario Metrics'!C7</f>
+        <v>6766789.5369814029</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="26"/>
       <c r="F10" s="14"/>
@@ -11826,7 +12442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V13"/>
   <sheetViews>
@@ -11951,18 +12567,18 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q12" s="142" t="s">
+      <c r="Q12" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11973,12 +12589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L166"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12800,7 +13416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L166"/>
   <sheetViews>
@@ -13626,12 +14242,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13660,39 +14276,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/output_templates/Benefit_Cost_Template.xlsx
+++ b/output_templates/Benefit_Cost_Template.xlsx
@@ -5,30 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\soundcast_214\output_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Stefan\Soundcast_feb_twg\output_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparison Charts" sheetId="12" r:id="rId1"/>
-    <sheet name="Baseline Metrics" sheetId="1" r:id="rId2"/>
-    <sheet name="Scenario Metrics" sheetId="9" r:id="rId3"/>
-    <sheet name="BaselineScenario" sheetId="13" r:id="rId4"/>
-    <sheet name="Difference" sheetId="10" r:id="rId5"/>
-    <sheet name="HeatResults" sheetId="6" r:id="rId6"/>
-    <sheet name="RawBaseline" sheetId="4" r:id="rId7"/>
-    <sheet name="RawScenario" sheetId="5" r:id="rId8"/>
-    <sheet name="Baseline Charts" sheetId="7" r:id="rId9"/>
-    <sheet name="Scenario Charts" sheetId="11" r:id="rId10"/>
+    <sheet name="Compare Total" sheetId="14" r:id="rId1"/>
+    <sheet name="Comparison Charts" sheetId="12" r:id="rId2"/>
+    <sheet name="Baseline Metrics" sheetId="1" r:id="rId3"/>
+    <sheet name="Scenario Metrics" sheetId="9" r:id="rId4"/>
+    <sheet name="BaselineScenario" sheetId="13" r:id="rId5"/>
+    <sheet name="Difference" sheetId="10" r:id="rId6"/>
+    <sheet name="HeatResults" sheetId="6" r:id="rId7"/>
+    <sheet name="RawBaseline" sheetId="4" r:id="rId8"/>
+    <sheet name="RawScenario" sheetId="5" r:id="rId9"/>
+    <sheet name="Baseline Charts" sheetId="7" r:id="rId10"/>
+    <sheet name="Scenario Charts" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="172">
   <si>
     <t xml:space="preserve">Toll and Auto Operating Cost </t>
   </si>
@@ -621,6 +622,42 @@
   <si>
     <t>Accident Type (per capita)</t>
   </si>
+  <si>
+    <t>Medium Truck Travel Time</t>
+  </si>
+  <si>
+    <t>Medium Truck Operating Cost</t>
+  </si>
+  <si>
+    <t>Medium Truck Tolls</t>
+  </si>
+  <si>
+    <t>Heavy Truck Travel Time</t>
+  </si>
+  <si>
+    <t>Heavy Truck Operating Cost</t>
+  </si>
+  <si>
+    <t>Havey Truck Tolls</t>
+  </si>
+  <si>
+    <t>Baseline Totals</t>
+  </si>
+  <si>
+    <t>Scenario Totals</t>
+  </si>
+  <si>
+    <t>Household Travel Time</t>
+  </si>
+  <si>
+    <t>Household Auto Operating and Tolls</t>
+  </si>
+  <si>
+    <t>Truck Auto Operating and Tolls</t>
+  </si>
+  <si>
+    <t>Truck Travel Time</t>
+  </si>
 </sst>
 </file>
 
@@ -638,7 +675,7 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1073,7 +1110,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,12 +1444,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1422,7 +1453,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7498,10 +7541,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7511,7 +7568,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -7532,7 +7589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -7569,10 +7626,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8246,19 +8339,19 @@
       <c r="B20" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="163">
         <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B20,RawBaseline!$D$23:$D$30)</f>
         <v>138281.874327197</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="163">
         <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B20,RawBaseline!$B$23:$B$30)</f>
         <v>20078.151816686699</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="163">
         <f>RawBaseline!B43</f>
         <v>135714</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="163">
         <f>RawBaseline!B63</f>
         <v>19872</v>
       </c>
@@ -8954,7 +9047,7 @@
       <c r="B51" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="45"/>
@@ -8969,7 +9062,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="55" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52" s="79"/>
@@ -8980,7 +9073,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="55" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C53" s="79"/>
       <c r="D53" s="79"/>
@@ -8990,15 +9083,40 @@
       <c r="H53" s="79"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
+      <c r="B54" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="106"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="106"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="106"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9007,12 +9125,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10447,17 +10565,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
@@ -10485,7 +10603,7 @@
       <c r="F2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="157" t="s">
+      <c r="G2" s="155" t="s">
         <v>148</v>
       </c>
       <c r="H2" s="149" t="s">
@@ -10494,7 +10612,7 @@
       <c r="I2" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="157" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10514,18 +10632,18 @@
         <f>B3-C3</f>
         <v>-6236.314062063524</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="160">
+      <c r="G3" s="158">
         <f>B3/'Baseline Metrics'!$C$7*300</f>
         <v>3.1017618744321691</v>
       </c>
-      <c r="H3" s="160">
+      <c r="H3" s="158">
         <f>C3/'Scenario Metrics'!$C$7*300</f>
         <v>2.8268087585748614</v>
       </c>
-      <c r="I3" s="161">
+      <c r="I3" s="159">
         <f>H3-G3</f>
         <v>-0.27495311585730775</v>
       </c>
@@ -10546,18 +10664,18 @@
         <f t="shared" ref="D4:D7" si="0">B4-C4</f>
         <v>-157.78891671233646</v>
       </c>
-      <c r="F4" s="157" t="s">
+      <c r="F4" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="160">
+      <c r="G4" s="158">
         <f>B4/'Baseline Metrics'!$C$7*300</f>
         <v>8.2132298902646395E-2</v>
       </c>
-      <c r="H4" s="160">
+      <c r="H4" s="158">
         <f>C4/'Scenario Metrics'!$C$7*300</f>
         <v>7.4390016471267431E-2</v>
       </c>
-      <c r="I4" s="161">
+      <c r="I4" s="159">
         <f t="shared" ref="I4:I7" si="1">G4-H4</f>
         <v>7.7422824313789634E-3</v>
       </c>
@@ -10579,18 +10697,18 @@
         <f t="shared" si="0"/>
         <v>-4.8947480773862253</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="160">
+      <c r="G5" s="158">
         <f>B5/'Baseline Metrics'!$C$7*300</f>
         <v>2.6509327375729766E-3</v>
       </c>
-      <c r="H5" s="160">
+      <c r="H5" s="158">
         <f>C5/'Scenario Metrics'!$C$7*300</f>
         <v>2.3885845097975991E-3</v>
       </c>
-      <c r="I5" s="161">
+      <c r="I5" s="159">
         <f t="shared" si="1"/>
         <v>2.6234822777537747E-4</v>
       </c>
@@ -10612,18 +10730,18 @@
         <f t="shared" si="0"/>
         <v>-0.1373714621511084</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="160">
+      <c r="G6" s="158">
         <f>B6/'Baseline Metrics'!$C$7*300</f>
         <v>8.3432983897194414E-5</v>
       </c>
-      <c r="H6" s="160">
+      <c r="H6" s="158">
         <f>C6/'Scenario Metrics'!$C$7*300</f>
         <v>7.4127285793137708E-5</v>
       </c>
-      <c r="I6" s="161">
+      <c r="I6" s="159">
         <f t="shared" si="1"/>
         <v>9.3056981040567059E-6</v>
       </c>
@@ -10645,18 +10763,18 @@
         <f t="shared" si="0"/>
         <v>-7.2061157104484082</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="160">
+      <c r="G7" s="158">
         <f>B7/'Baseline Metrics'!$C$7*300</f>
         <v>3.2950583420717013E-3</v>
       </c>
-      <c r="H7" s="160">
+      <c r="H7" s="158">
         <f>C7/'Scenario Metrics'!$C$7*300</f>
         <v>3.0395099843317994E-3</v>
       </c>
-      <c r="I7" s="161">
+      <c r="I7" s="159">
         <f t="shared" si="1"/>
         <v>2.5554835773990191E-4</v>
       </c>
@@ -10849,25 +10967,25 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="155" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="156" t="s">
         <v>149</v>
       </c>
       <c r="D18" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="157" t="s">
+      <c r="F18" s="155" t="s">
         <v>159</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="H18" s="158" t="s">
+      <c r="H18" s="156" t="s">
         <v>149</v>
       </c>
       <c r="I18" s="149" t="s">
@@ -10969,6 +11087,80 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="165"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="123" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="165"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="165"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="123" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="165"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="165"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="165"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="165"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="165"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="166"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10976,12 +11168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11239,7 +11431,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="162">
+      <c r="C10" s="160">
         <f>C4*'Scenario Metrics'!C7</f>
         <v>6766789.5369814029</v>
       </c>
@@ -11283,7 +11475,7 @@
         <f>SUM(E44:E48)</f>
         <v>500957.18922636157</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="40">
         <f>'Scenario Metrics'!N11-'Baseline Metrics'!N11</f>
         <v>-7.4875447193957112E-2</v>
       </c>
@@ -12442,12 +12634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12567,18 +12759,18 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q12" s="155" t="s">
+      <c r="Q12" s="161" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12589,7 +12781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L166"/>
   <sheetViews>
@@ -13416,7 +13608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L166"/>
   <sheetViews>
@@ -14240,40 +14432,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/output_templates/Benefit_Cost_Template.xlsx
+++ b/output_templates/Benefit_Cost_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Stefan\Soundcast_feb_twg\output_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\soundcast_37\output_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19980" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Compare Total" sheetId="14" r:id="rId1"/>
@@ -1454,18 +1454,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1487,6 +1487,3085 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Benefits</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Plan</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Travel Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>45890519.701592058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Auto Operating and Tolls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2507091.0721640885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Auto Ownership</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15559728.153245993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transit Fares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>261267.07899990701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>754110.31650657998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6936746.666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Safety</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>957182.85994730284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Difference!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Air Quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Difference!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Difference!$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500957.18922636157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2E39-4FB2-A61C-3E748871C899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="355526832"/>
+        <c:axId val="355532080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="355526832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355532080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="355532080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355526832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference in Health Benefit </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>of Active Transport</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HeatResults!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Walking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HeatResults!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health Benefits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HeatResults!$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5296600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4252-43C8-BA8F-1A9617BA348E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HeatResults!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cycling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HeatResults!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Health Benefits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HeatResults!$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1640146.6666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4252-43C8-BA8F-1A9617BA348E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84456192"/>
+        <c:axId val="84458112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84456192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47064741907261592"/>
+              <c:y val="0.89513888888888893"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84458112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84458112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Health Benefit Improvement from Active Transport</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.18079870224555264"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84456192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent of the Population </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Using Each Mode</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15075240594925635"/>
+          <c:y val="0.32871536891221931"/>
+          <c:w val="0.59271959755030623"/>
+          <c:h val="0.39231846019247596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Population Using Mode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baseline Metrics'!$G$15:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49277155816995349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3770617552723825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25162351922204573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6799471780548638E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2460823412531542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6234722312332442E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B49B-478F-8142-9F3850EC4808}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Low Income Population Using Mode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baseline Metrics'!$H$15:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.36786193706943349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33965606921317487</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21640701126372192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5059793805066517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28582915212043708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5136656952775953E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B49B-478F-8142-9F3850EC4808}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84551936"/>
+        <c:axId val="84582784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84551936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84582784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84582784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Percent of Population </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6776027996500452E-3"/>
+              <c:y val="0.19104148439778362"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84551936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75458311461067362"/>
+          <c:y val="0.33464895013123358"/>
+          <c:w val="0.22875021872265969"/>
+          <c:h val="0.52931321084864391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Minutes per Day spent in each mode per mode user</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15068044619422571"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14497462817147858"/>
+          <c:y val="0.23623869932925046"/>
+          <c:w val="0.59277559055118112"/>
+          <c:h val="0.54960994459025958"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minutes per Mode User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$L$15:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baseline Metrics'!$O$15:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.450561885801449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.741107424792318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.171948192338583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.996679447287249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.919794727418633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.135273145230556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C4F-4EB3-BF71-A792B4B056C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minutes per Low Income Mode User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$L$15:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baseline Metrics'!$P$15:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54.411197996007068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.175319124377879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.822410679851799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.818267800116365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.39804691769849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.622439060044385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C4F-4EB3-BF71-A792B4B056C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="114275840"/>
+        <c:axId val="114277760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="114275840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114277760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114277760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Average Mintutes Spent Traveling</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114275840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78497244094488194"/>
+          <c:y val="0.34859580052493438"/>
+          <c:w val="0.21502755905511811"/>
+          <c:h val="0.34875765529308839"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Daily Cost per Person</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16461351706036745"/>
+          <c:y val="0.20084171770195391"/>
+          <c:w val="0.76594203849518816"/>
+          <c:h val="0.40108668708078155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value per Person</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$L$4:$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Travel Time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Auto Operating and Tolls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Ownership</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit Fares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Parking</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Safety</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Air Quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baseline Metrics'!$N$4:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.885944257558556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3630023614511244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.684555589270023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13455067571988563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57246555714878178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6671810108173417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83636524346720409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EAD-4100-A5D6-99F949494DB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="83517440"/>
+        <c:axId val="83519360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83517440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Cost Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38984142607174099"/>
+              <c:y val="0.86273148148148149"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83519360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83519360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Daily Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83517440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily Collisions by Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Baseline Metrics'!$B$38:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Injury Collisions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Property Damage Collisions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fatality Collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Baseline Metrics'!$C$38:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.283153831235246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.791638359199609</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>0.9118180229104933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F092-40EA-9C04-6E001D071717}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="83543936"/>
+        <c:axId val="83554304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83543936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Collison Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83554304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83554304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Daily Collisions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83543936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent of the Population </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Using Each Mode</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15075240594925635"/>
+          <c:y val="0.32871536891221931"/>
+          <c:w val="0.59271959755030623"/>
+          <c:h val="0.39231846019247596"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Population Using Mode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Metrics'!$G$15:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50047458323334848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36204423924695406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2244241133131652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5982357952491378E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27818750910342643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.04195278059249E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8FE-4E73-8648-0D51519A9BA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent of Low Income Population Using Mode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$B$15:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Metrics'!$H$15:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42740759366356551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31768334590562403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1711340206185567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5300198362808369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30737518509205708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8149079428938618E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8FE-4E73-8648-0D51519A9BA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84743296"/>
+        <c:axId val="84745216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84743296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84745216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84745216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Percent of Population </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6776027996500452E-3"/>
+              <c:y val="0.19104148439778362"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84743296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75458311461067362"/>
+          <c:y val="0.33464895013123358"/>
+          <c:w val="0.22875021872265969"/>
+          <c:h val="0.52931321084864391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="109"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="9"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Minutes per Day spent in each mode per mode user</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15068044619422571"/>
+          <c:y val="4.6296296296296294E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14497462817147858"/>
+          <c:y val="0.23623869932925046"/>
+          <c:w val="0.59277559055118112"/>
+          <c:h val="0.54960994459025958"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minutes per Mode User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$L$15:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Metrics'!$O$15:$O$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65.915881734821241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.731020585029469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.367743247054641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.213877797108509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.506742866821355</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.820450357679505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C020-4D82-9018-A04E831E00CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minutes per Low Income Mode User</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$L$15:$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SOV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HOV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOV3+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Walk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bike</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Metrics'!$P$15:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.447091482966144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.633662788111486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.514286853359394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.545814773375241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.949534029368294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.005997922638372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C020-4D82-9018-A04E831E00CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84787584"/>
+        <c:axId val="84789504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84787584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84789504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84789504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Average Mintutes Spent Traveling</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84787584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78497244094488194"/>
+          <c:y val="0.34859580052493438"/>
+          <c:w val="0.21502755905511811"/>
+          <c:h val="0.34875765529308839"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Daily Cost per Person</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16461351706036745"/>
+          <c:y val="0.20084171770195391"/>
+          <c:w val="0.76594203849518816"/>
+          <c:h val="0.40108668708078155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value per Person</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$L$4:$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Travel Time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Auto Operating and Tolls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auto Ownership</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Transit Fares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Parking</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Health</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Safety</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Air Quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Metrics'!$N$4:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>37.786047072941045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1651995703232654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.572463600759207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1603701369888749</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60739743255686462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5092489327306751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76148979627324698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F36B-4A20-B82C-880C35A4472C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="85133952"/>
+        <c:axId val="85140224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85133952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Cost Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38984142607174099"/>
+              <c:y val="0.86273148148148149"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85140224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85140224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Daily Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85133952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily Collisions by Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$C$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario Metrics'!$B$38:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Injury Collisions</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Property Damage Collisions</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fatality Collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario Metrics'!$C$38:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>56.844887153160776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.73371713545689</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>1.0518270586399558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6094-406E-8A7F-0E836C70750B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="85181184"/>
+        <c:axId val="85183104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85181184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Collison Category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85183104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85183104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Daily Collisions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85181184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1793,2161 +4872,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="109"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="9"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percent of the Population </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Using Each Mode</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15075240594925635"/>
-          <c:y val="0.32871536891221931"/>
-          <c:w val="0.59271959755030623"/>
-          <c:h val="0.39231846019247596"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$G$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent of Population Using Mode</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Baseline Metrics'!$G$15:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.49277155816995349</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3770617552723825</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25162351922204573</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6799471780548638E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2460823412531542</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6234722312332442E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B49B-478F-8142-9F3850EC4808}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$H$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent of Low Income Population Using Mode</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Baseline Metrics'!$H$15:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.36786193706943349</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33965606921317487</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21640701126372192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5059793805066517</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28582915212043708</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5136656952775953E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B49B-478F-8142-9F3850EC4808}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="84551936"/>
-        <c:axId val="84582784"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84551936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Mode</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84582784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84582784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Percent of Population </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6776027996500452E-3"/>
-              <c:y val="0.19104148439778362"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84551936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75458311461067362"/>
-          <c:y val="0.33464895013123358"/>
-          <c:w val="0.22875021872265969"/>
-          <c:h val="0.52931321084864391"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="109"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="9"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Minutes per Day spent in each mode per mode user</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15068044619422571"/>
-          <c:y val="4.6296296296296294E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14497462817147858"/>
-          <c:y val="0.23623869932925046"/>
-          <c:w val="0.59277559055118112"/>
-          <c:h val="0.54960994459025958"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minutes per Mode User</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$L$15:$L$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Baseline Metrics'!$O$15:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64.450561885801449</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39.741107424792318</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.171948192338583</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.996679447287249</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.919794727418633</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>61.135273145230556</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C4F-4EB3-BF71-A792B4B056C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$P$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minutes per Low Income Mode User</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$L$15:$L$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Baseline Metrics'!$P$15:$P$20</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>54.411197996007068</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38.175319124377879</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.822410679851799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.818267800116365</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.39804691769849</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.622439060044385</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C4F-4EB3-BF71-A792B4B056C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="114275840"/>
-        <c:axId val="114277760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="114275840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Mode</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114277760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="114277760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Average Mintutes Spent Traveling</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114275840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78497244094488194"/>
-          <c:y val="0.34859580052493438"/>
-          <c:w val="0.21502755905511811"/>
-          <c:h val="0.34875765529308839"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Daily Cost per Person</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16461351706036745"/>
-          <c:y val="0.20084171770195391"/>
-          <c:w val="0.76594203849518816"/>
-          <c:h val="0.40108668708078155"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Value per Person</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$L$4:$L$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Travel Time</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Auto Operating and Tolls</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auto Ownership</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit Fares</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Parking</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Health</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Safety</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Air Quality</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Baseline Metrics'!$N$4:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>35.885944257558556</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3630023614511244</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.684555589270023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13455067571988563</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57246555714878178</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6671810108173417</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83636524346720409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2EAD-4100-A5D6-99F949494DB2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="83517440"/>
-        <c:axId val="83519360"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="83517440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Cost Category</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.38984142607174099"/>
-              <c:y val="0.86273148148148149"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83519360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83519360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Daily Cost</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83517440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Daily Collisions by Type</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Baseline Metrics'!$B$38:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Injury Collisions</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Property Damage Collisions</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fatality Collisions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Baseline Metrics'!$C$38:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>49.283153831235246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.791638359199609</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0">
-                  <c:v>0.9118180229104933</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F092-40EA-9C04-6E001D071717}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="83543936"/>
-        <c:axId val="83554304"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="83543936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Collison Category</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83554304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83554304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Daily Collisions</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83543936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="109"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="9"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percent of the Population </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Using Each Mode</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15075240594925635"/>
-          <c:y val="0.32871536891221931"/>
-          <c:w val="0.59271959755030623"/>
-          <c:h val="0.39231846019247596"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$G$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent of Population Using Mode</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Metrics'!$G$15:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50047458323334848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36204423924695406</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2244241133131652</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5982357952491378E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27818750910342643</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.04195278059249E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8FE-4E73-8648-0D51519A9BA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$H$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent of Low Income Population Using Mode</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$B$15:$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Metrics'!$H$15:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.42740759366356551</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31768334590562403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1711340206185567</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.5300198362808369E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.30737518509205708</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8149079428938618E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8FE-4E73-8648-0D51519A9BA0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="84743296"/>
-        <c:axId val="84745216"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84743296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Mode</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84745216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84745216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Percent of Population </a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6776027996500452E-3"/>
-              <c:y val="0.19104148439778362"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84743296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.75458311461067362"/>
-          <c:y val="0.33464895013123358"/>
-          <c:w val="0.22875021872265969"/>
-          <c:h val="0.52931321084864391"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="109"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="9"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Minutes per Day spent in each mode per mode user</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15068044619422571"/>
-          <c:y val="4.6296296296296294E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.14497462817147858"/>
-          <c:y val="0.23623869932925046"/>
-          <c:w val="0.59277559055118112"/>
-          <c:h val="0.54960994459025958"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$O$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minutes per Mode User</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$L$15:$L$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Metrics'!$O$15:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>65.915881734821241</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.731020585029469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39.367743247054641</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.213877797108509</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.506742866821355</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.820450357679505</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C020-4D82-9018-A04E831E00CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$P$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>minutes per Low Income Mode User</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$L$15:$L$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>SOV</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HOV2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HOV3+</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Walk</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Bike</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Metrics'!$P$15:$P$20</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>60.447091482966144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.633662788111486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.514286853359394</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89.545814773375241</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97.949534029368294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.005997922638372</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C020-4D82-9018-A04E831E00CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="84787584"/>
-        <c:axId val="84789504"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84787584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Mode</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84789504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84789504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Average Mintutes Spent Traveling</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84787584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.78497244094488194"/>
-          <c:y val="0.34859580052493438"/>
-          <c:w val="0.21502755905511811"/>
-          <c:h val="0.34875765529308839"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Daily Cost per Person</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16461351706036745"/>
-          <c:y val="0.20084171770195391"/>
-          <c:w val="0.76594203849518816"/>
-          <c:h val="0.40108668708078155"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Value per Person</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$L$4:$L$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Travel Time</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Auto Operating and Tolls</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auto Ownership</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Transit Fares</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Parking</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Health</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Safety</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Air Quality</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Metrics'!$N$4:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>37.786047072941045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1651995703232654</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.572463600759207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1603701369888749</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60739743255686462</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5092489327306751</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.76148979627324698</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F36B-4A20-B82C-880C35A4472C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="85133952"/>
-        <c:axId val="85140224"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="85133952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="1"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
-                  <a:t>Cost Category</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.38984142607174099"/>
-              <c:y val="0.86273148148148149"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85140224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85140224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Daily Cost</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85133952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Daily Collisions by Type</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Scenario Metrics'!$B$38:$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Injury Collisions</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Property Damage Collisions</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Fatality Collisions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Scenario Metrics'!$C$38:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>56.844887153160776</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>107.73371713545689</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.0">
-                  <c:v>1.0518270586399558</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6094-406E-8A7F-0E836C70750B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="85181184"/>
-        <c:axId val="85183104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="85181184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Collison Category</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85183104"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85183104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Daily Collisions</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85181184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4205,7 +5130,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4476,7 +5401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4849,7 +5774,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5198,7 +6123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5520,7 +6445,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5787,7 +6712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5985,258 +6910,591 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="109"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="9"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Difference in Health Benefit </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>of Active Transport</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>HeatResults!$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Walking</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>HeatResults!$Q$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Health Benefits</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>HeatResults!$R$8</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5296600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4252-43C8-BA8F-1A9617BA348E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>HeatResults!$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cycling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>HeatResults!$Q$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Health Benefits</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>HeatResults!$S$8</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1640146.6666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4252-43C8-BA8F-1A9617BA348E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="84456192"/>
-        <c:axId val="84458112"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84456192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mode</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.47064741907261592"/>
-              <c:y val="0.89513888888888893"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84458112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84458112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Health Benefit Improvement from Active Transport</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2222222222222223E-2"/>
-              <c:y val="0.18079870224555264"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84456192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A10ECF-EE62-4FFF-864C-52D4EF94D20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6583,7 +7841,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6649,7 +7907,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6715,7 +7973,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6781,7 +8039,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6908,7 +8166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7063,7 +8321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7543,13 +8801,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8339,19 +9598,19 @@
       <c r="B20" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="163">
+      <c r="C20" s="161">
         <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B20,RawBaseline!$D$23:$D$30)</f>
         <v>138281.874327197</v>
       </c>
-      <c r="D20" s="163">
+      <c r="D20" s="161">
         <f>SUMIF(RawBaseline!$A$23:$A$30,'Baseline Metrics'!$B20,RawBaseline!$B$23:$B$30)</f>
         <v>20078.151816686699</v>
       </c>
-      <c r="E20" s="163">
+      <c r="E20" s="161">
         <f>RawBaseline!B43</f>
         <v>135714</v>
       </c>
-      <c r="F20" s="163">
+      <c r="F20" s="161">
         <f>RawBaseline!B63</f>
         <v>19872</v>
       </c>
@@ -9129,7 +10388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:N11"/>
     </sheetView>
   </sheetViews>
@@ -10569,7 +11828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -11095,7 +12354,7 @@
       <c r="B25" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="162" t="s">
         <v>167</v>
       </c>
     </row>
@@ -11104,63 +12363,63 @@
         <v>168</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="165"/>
+      <c r="C26" s="163"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="123" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="24"/>
-      <c r="C27" s="165"/>
+      <c r="C27" s="163"/>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123" t="s">
         <v>171</v>
       </c>
       <c r="B28" s="24"/>
-      <c r="C28" s="165"/>
+      <c r="C28" s="163"/>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123" t="s">
         <v>170</v>
       </c>
       <c r="B29" s="24"/>
-      <c r="C29" s="165"/>
+      <c r="C29" s="163"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="123" t="s">
         <v>101</v>
       </c>
       <c r="B30" s="24"/>
-      <c r="C30" s="165"/>
+      <c r="C30" s="163"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="123" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="24"/>
-      <c r="C31" s="165"/>
+      <c r="C31" s="163"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="123" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="165"/>
+      <c r="C32" s="163"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="123" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="24"/>
-      <c r="C33" s="165"/>
+      <c r="C33" s="163"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="125" t="s">
         <v>98</v>
       </c>
       <c r="B34" s="39"/>
-      <c r="C34" s="166"/>
+      <c r="C34" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12759,18 +14018,18 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q12" s="161" t="s">
+      <c r="Q12" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
+      <c r="R12" s="166"/>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="166"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="1">
